--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>53937.3084374863</v>
+        <v>51716.14311412271</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23845934.64571013</v>
+        <v>23845934.64571014</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9134618.112059638</v>
+        <v>9134618.112059642</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4901791.188987093</v>
+        <v>4871071.127328955</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>376.273554789842</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>135.1926400316089</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -823,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>130.3974983086296</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>231.366466664701</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>47.1501654697139</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>48.26988917406522</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>3.744048358731227</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1066,13 +1068,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,7 +1119,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>171.738904007115</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1142,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>47.85726769493389</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>74.47479140598085</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,7 +1229,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H9" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>3.744048358731227</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>159.582856075998</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1354,10 +1356,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>405.4164878341365</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1385,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>67.65538200560648</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1427,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1525,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>94.1175398195317</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>103.7622227761402</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1579,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,10 +1615,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>424.2958575201043</v>
+        <v>405.4164878341365</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1658,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>127.1416326063967</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1673,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1762,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>143.131197295771</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>63.15068489140545</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
@@ -1783,7 +1785,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,19 +1815,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1850,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>67.65538200560648</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1910,7 +1912,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>74.06216992684948</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -1999,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>106.0626366504663</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>120.4465470948287</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2053,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2065,10 +2067,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,22 +2083,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>139.0939654008816</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>386.0309950025953</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2251,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>26.89322107073152</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2299,13 +2301,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>102.2146311366279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2324,13 +2326,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>125.2558025085172</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>286.2388530112159</v>
@@ -2375,7 +2377,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>28.60468344882547</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2488,13 +2490,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7884964950064</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>161.6379250432767</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2552,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>82.68219563003913</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>153.579924007688</v>
       </c>
       <c r="G26" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,22 +2608,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2728,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>85.55329631630698</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2779,7 +2781,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>292.9291244968619</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2846,16 +2848,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>45.50306732735552</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -2953,7 +2955,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2968,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>3.423392126084869</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3029,19 +3031,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>294.068683532556</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3083,13 +3085,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>64.3130766292841</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3250,7 +3252,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>239.7909713904969</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
@@ -3272,7 +3274,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
@@ -3281,10 +3283,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>329.3294950668471</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>163.4674767794826</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3439,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3500,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3515,7 +3517,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>75.69992417918324</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3560,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>69.33474639767908</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3670,16 +3672,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>130.6556207749485</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3737,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>321.8114658824484</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -3752,10 +3754,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -3800,13 +3802,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>93.20265817819813</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3904,7 +3906,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3913,10 +3915,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>7.264602967362461</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,10 +3954,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>172.6623007436913</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3977,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3986,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>135.8362567149032</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
@@ -3995,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4037,13 +4039,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>338.3044684451755</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4132,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4201,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>173.5591556145158</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1270.883859595509</v>
+        <v>1288.897306380071</v>
       </c>
       <c r="C2" t="n">
-        <v>890.8095618279922</v>
+        <v>1288.897306380071</v>
       </c>
       <c r="D2" t="n">
-        <v>462.2278875652606</v>
+        <v>1288.897306380071</v>
       </c>
       <c r="E2" t="n">
-        <v>462.2278875652606</v>
+        <v>1152.33908412592</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4331,16 +4333,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
         <v>687.9235674375537</v>
@@ -4373,7 +4375,7 @@
         <v>1697.183430080417</v>
       </c>
       <c r="Y2" t="n">
-        <v>1697.183430080417</v>
+        <v>1288.897306380071</v>
       </c>
     </row>
     <row r="3">
@@ -4404,25 +4406,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>358.5019935678207</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>358.5019935678207</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M3" t="n">
-        <v>358.5019935678207</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N3" t="n">
-        <v>358.5019935678207</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>460.7566043178804</v>
+        <v>552.97043790589</v>
       </c>
       <c r="C4" t="n">
-        <v>288.1948928011053</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="D4" t="n">
-        <v>288.1948928011053</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E4" t="n">
-        <v>288.1948928011053</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F4" t="n">
-        <v>288.1948928011053</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4492,13 +4494,13 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>395.2818083374338</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M4" t="n">
-        <v>395.2818083374338</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N4" t="n">
-        <v>815.3347072823371</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O4" t="n">
         <v>1181.483761245743</v>
@@ -4510,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1544.050964029598</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1298.171517608053</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U4" t="n">
-        <v>1019.738516861158</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="V4" t="n">
-        <v>732.7830087315888</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="W4" t="n">
-        <v>460.7566043178804</v>
+        <v>1217.600481977356</v>
       </c>
       <c r="X4" t="n">
-        <v>460.7566043178804</v>
+        <v>972.2087273107688</v>
       </c>
       <c r="Y4" t="n">
-        <v>460.7566043178804</v>
+        <v>744.789056624877</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>461.8110981924006</v>
+        <v>462.9421322372</v>
       </c>
       <c r="C5" t="n">
-        <v>461.8110981924006</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="D5" t="n">
-        <v>461.8110981924006</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="E5" t="n">
-        <v>461.8110981924006</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I5" t="n">
         <v>33.94366860160834</v>
@@ -4568,19 +4570,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P5" t="n">
         <v>1107.976466382457</v>
@@ -4598,19 +4600,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U5" t="n">
-        <v>1648.42596626823</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V5" t="n">
-        <v>1285.809016202057</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W5" t="n">
-        <v>880.95356161309</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="X5" t="n">
-        <v>461.8110981924006</v>
+        <v>510.5685620045878</v>
       </c>
       <c r="Y5" t="n">
-        <v>461.8110981924006</v>
+        <v>510.5685620045878</v>
       </c>
     </row>
     <row r="6">
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>718.8484307043673</v>
+        <v>1113.00182921349</v>
       </c>
       <c r="C7" t="n">
-        <v>546.2867191875922</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D7" t="n">
-        <v>380.4087263891149</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E7" t="n">
-        <v>210.6507226398521</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I7" t="n">
         <v>33.94366860160834</v>
@@ -4726,13 +4728,13 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>343.6046302520008</v>
       </c>
       <c r="L7" t="n">
-        <v>395.2818083374338</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="M7" t="n">
-        <v>395.2818083374338</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N7" t="n">
         <v>761.8145120199619</v>
@@ -4747,28 +4749,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T7" t="n">
-        <v>1451.303983658873</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U7" t="n">
-        <v>1451.303983658873</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="V7" t="n">
-        <v>1164.348475529303</v>
+        <v>1388.81010065622</v>
       </c>
       <c r="W7" t="n">
-        <v>892.3220711155946</v>
+        <v>1116.783696242511</v>
       </c>
       <c r="X7" t="n">
-        <v>718.8484307043673</v>
+        <v>1116.783696242511</v>
       </c>
       <c r="Y7" t="n">
-        <v>718.8484307043673</v>
+        <v>1116.783696242511</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>435.3414999783445</v>
+        <v>510.5685620045878</v>
       </c>
       <c r="C8" t="n">
-        <v>435.3414999783445</v>
+        <v>510.5685620045878</v>
       </c>
       <c r="D8" t="n">
-        <v>435.3414999783445</v>
+        <v>510.5685620045878</v>
       </c>
       <c r="E8" t="n">
-        <v>435.3414999783445</v>
+        <v>510.5685620045878</v>
       </c>
       <c r="F8" t="n">
-        <v>435.3414999783445</v>
+        <v>82.70113241379551</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>82.70113241379551</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I8" t="n">
         <v>33.94366860160834</v>
@@ -4805,16 +4807,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M8" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N8" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O8" t="n">
         <v>687.9235674375537</v>
@@ -4847,7 +4849,7 @@
         <v>510.5685620045878</v>
       </c>
       <c r="Y8" t="n">
-        <v>435.3414999783445</v>
+        <v>510.5685620045878</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4874,7 @@
         <v>161.064410519212</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H9" t="n">
         <v>33.94366860160834</v>
@@ -4884,25 +4886,25 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K9" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L9" t="n">
-        <v>739.9048540962709</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="M9" t="n">
-        <v>739.9048540962709</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="N9" t="n">
-        <v>739.9048540962709</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="O9" t="n">
-        <v>739.9048540962709</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1644.724363562988</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1644.724363562988</v>
       </c>
       <c r="R9" t="n">
         <v>1697.183430080417</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33.94366860160834</v>
+        <v>1113.00182921349</v>
       </c>
       <c r="C10" t="n">
-        <v>33.94366860160834</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D10" t="n">
-        <v>33.94366860160834</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E10" t="n">
-        <v>33.94366860160834</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I10" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="L10" t="n">
-        <v>437.4083829648294</v>
+        <v>538.7332355342593</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>958.7861344791625</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1378.839033424066</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>1378.839033424066</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q10" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T10" t="n">
-        <v>1535.988625963248</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U10" t="n">
-        <v>1257.555625216353</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="V10" t="n">
-        <v>970.6001170867833</v>
+        <v>1388.81010065622</v>
       </c>
       <c r="W10" t="n">
-        <v>698.5737126730747</v>
+        <v>1116.783696242511</v>
       </c>
       <c r="X10" t="n">
-        <v>453.1819580064872</v>
+        <v>1116.783696242511</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.7622873205955</v>
+        <v>1116.783696242511</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>102.2824383042412</v>
+        <v>443.4552724744735</v>
       </c>
       <c r="C11" t="n">
-        <v>102.2824383042412</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D11" t="n">
-        <v>102.2824383042412</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E11" t="n">
-        <v>102.2824383042412</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F11" t="n">
-        <v>102.2824383042412</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G11" t="n">
-        <v>102.2824383042412</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H11" t="n">
         <v>33.94366860160834</v>
@@ -5039,19 +5041,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J11" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K11" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L11" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="M11" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="N11" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O11" t="n">
         <v>687.9235674375537</v>
@@ -5075,16 +5077,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V11" t="n">
-        <v>1334.566480014244</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W11" t="n">
-        <v>929.7110254252771</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X11" t="n">
-        <v>510.5685620045878</v>
+        <v>1278.040966659728</v>
       </c>
       <c r="Y11" t="n">
-        <v>102.2824383042412</v>
+        <v>869.7548429593813</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5117,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I12" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J12" t="n">
-        <v>384.5656667282782</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K12" t="n">
-        <v>804.6185656731816</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L12" t="n">
-        <v>1159.957753041174</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="M12" t="n">
-        <v>1159.957753041174</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="N12" t="n">
-        <v>1159.957753041174</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="O12" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P12" t="n">
         <v>1159.957753041174</v>
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>646.930316449007</v>
+        <v>467.1648771324868</v>
       </c>
       <c r="C13" t="n">
-        <v>646.930316449007</v>
+        <v>294.6031656157117</v>
       </c>
       <c r="D13" t="n">
-        <v>481.0523236505297</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="E13" t="n">
-        <v>481.0523236505297</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="F13" t="n">
-        <v>304.345269612286</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G13" t="n">
-        <v>138.7539946381136</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H13" t="n">
         <v>33.94366860160834</v>
@@ -5197,22 +5199,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J13" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K13" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="L13" t="n">
-        <v>89.90148899448771</v>
+        <v>538.7332355342593</v>
       </c>
       <c r="M13" t="n">
-        <v>509.954387939391</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N13" t="n">
-        <v>930.0072868842942</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O13" t="n">
-        <v>1349.676536110076</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P13" t="n">
         <v>1697.183430080417</v>
@@ -5227,22 +5229,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T13" t="n">
-        <v>1451.303983658873</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U13" t="n">
-        <v>1451.303983658873</v>
+        <v>1418.750429333523</v>
       </c>
       <c r="V13" t="n">
-        <v>1164.348475529303</v>
+        <v>1131.794921203953</v>
       </c>
       <c r="W13" t="n">
-        <v>892.3220711155946</v>
+        <v>1131.794921203953</v>
       </c>
       <c r="X13" t="n">
-        <v>646.930316449007</v>
+        <v>886.4031665373657</v>
       </c>
       <c r="Y13" t="n">
-        <v>646.930316449007</v>
+        <v>658.9834958514739</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>890.3927724551322</v>
+        <v>443.4552724744735</v>
       </c>
       <c r="C14" t="n">
-        <v>890.3927724551322</v>
+        <v>443.4552724744735</v>
       </c>
       <c r="D14" t="n">
-        <v>890.3927724551322</v>
+        <v>443.4552724744735</v>
       </c>
       <c r="E14" t="n">
-        <v>461.8110981924006</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F14" t="n">
         <v>33.94366860160834</v>
@@ -5279,16 +5281,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K14" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L14" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M14" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N14" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O14" t="n">
         <v>687.9235674375537</v>
@@ -5306,22 +5308,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T14" t="n">
-        <v>1568.757538558805</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U14" t="n">
-        <v>1309.535235875821</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V14" t="n">
-        <v>1309.535235875821</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W14" t="n">
-        <v>1309.535235875821</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X14" t="n">
-        <v>890.3927724551322</v>
+        <v>1278.040966659728</v>
       </c>
       <c r="Y14" t="n">
-        <v>890.3927724551322</v>
+        <v>869.7548429593813</v>
       </c>
     </row>
     <row r="15">
@@ -5358,16 +5360,16 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K15" t="n">
-        <v>739.9048540962709</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L15" t="n">
-        <v>739.9048540962709</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M15" t="n">
-        <v>739.9048540962709</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N15" t="n">
-        <v>739.9048540962709</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O15" t="n">
         <v>739.9048540962709</v>
@@ -5410,43 +5412,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>847.6348259499213</v>
+        <v>838.3506954956167</v>
       </c>
       <c r="C16" t="n">
-        <v>675.0731144331462</v>
+        <v>838.3506954956167</v>
       </c>
       <c r="D16" t="n">
-        <v>509.1951216346689</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E16" t="n">
-        <v>339.4371178854062</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F16" t="n">
-        <v>339.4371178854062</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G16" t="n">
-        <v>173.8458429112338</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H16" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I16" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J16" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K16" t="n">
-        <v>308.7021231727439</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L16" t="n">
-        <v>726.9120049407049</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M16" t="n">
-        <v>726.9120049407049</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N16" t="n">
-        <v>761.8145120199619</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O16" t="n">
         <v>1181.483761245743</v>
@@ -5461,25 +5463,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S16" t="n">
-        <v>1516.524240083786</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T16" t="n">
-        <v>1270.644793662241</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U16" t="n">
-        <v>992.2117929153466</v>
+        <v>1397.332608038895</v>
       </c>
       <c r="V16" t="n">
-        <v>992.2117929153466</v>
+        <v>1110.377099909325</v>
       </c>
       <c r="W16" t="n">
-        <v>992.2117929153466</v>
+        <v>838.3506954956167</v>
       </c>
       <c r="X16" t="n">
-        <v>992.2117929153466</v>
+        <v>838.3506954956167</v>
       </c>
       <c r="Y16" t="n">
-        <v>992.2117929153466</v>
+        <v>838.3506954956167</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>435.7582893512044</v>
+        <v>102.2824383042412</v>
       </c>
       <c r="C17" t="n">
-        <v>435.7582893512044</v>
+        <v>102.2824383042412</v>
       </c>
       <c r="D17" t="n">
-        <v>435.7582893512044</v>
+        <v>102.2824383042412</v>
       </c>
       <c r="E17" t="n">
-        <v>435.7582893512044</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F17" t="n">
-        <v>435.7582893512044</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G17" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H17" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I17" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J17" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K17" t="n">
-        <v>267.8706684926505</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="L17" t="n">
-        <v>687.9235674375537</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="M17" t="n">
-        <v>687.9235674375537</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="N17" t="n">
-        <v>687.9235674375537</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="O17" t="n">
-        <v>1107.976466382457</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="P17" t="n">
-        <v>1107.976466382457</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="Q17" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R17" t="n">
         <v>1697.183430080417</v>
@@ -5558,7 +5560,7 @@
         <v>510.5685620045878</v>
       </c>
       <c r="Y17" t="n">
-        <v>435.7582893512044</v>
+        <v>102.2824383042412</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5591,28 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I18" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J18" t="n">
-        <v>384.5656667282782</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="K18" t="n">
-        <v>804.6185656731816</v>
+        <v>778.554892512724</v>
       </c>
       <c r="L18" t="n">
-        <v>1159.957753041174</v>
+        <v>1198.607791457627</v>
       </c>
       <c r="M18" t="n">
-        <v>1159.957753041174</v>
+        <v>1198.607791457627</v>
       </c>
       <c r="N18" t="n">
-        <v>1159.957753041174</v>
+        <v>1198.607791457627</v>
       </c>
       <c r="O18" t="n">
-        <v>1159.957753041174</v>
+        <v>1198.607791457627</v>
       </c>
       <c r="P18" t="n">
-        <v>1159.957753041174</v>
+        <v>1198.607791457627</v>
       </c>
       <c r="Q18" t="n">
         <v>1580.010651986078</v>
@@ -5647,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>33.94366860160834</v>
+        <v>667.9498980712576</v>
       </c>
       <c r="C19" t="n">
-        <v>33.94366860160834</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="D19" t="n">
-        <v>33.94366860160834</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E19" t="n">
-        <v>33.94366860160834</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F19" t="n">
         <v>33.94366860160834</v>
@@ -5671,22 +5673,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J19" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K19" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L19" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M19" t="n">
-        <v>540.5762527112014</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N19" t="n">
-        <v>960.6291516561047</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O19" t="n">
-        <v>1380.298400881886</v>
+        <v>1293.718715717196</v>
       </c>
       <c r="P19" t="n">
         <v>1528.990655216085</v>
@@ -5701,22 +5703,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T19" t="n">
-        <v>1451.303983658873</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U19" t="n">
-        <v>1172.870982911978</v>
+        <v>1418.750429333523</v>
       </c>
       <c r="V19" t="n">
-        <v>885.9154747824084</v>
+        <v>1131.794921203953</v>
       </c>
       <c r="W19" t="n">
-        <v>613.8890703687</v>
+        <v>859.7685167902448</v>
       </c>
       <c r="X19" t="n">
-        <v>368.4973157021125</v>
+        <v>859.7685167902448</v>
       </c>
       <c r="Y19" t="n">
-        <v>141.0776450162207</v>
+        <v>859.7685167902448</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1318.202902254239</v>
+        <v>851.7413961748201</v>
       </c>
       <c r="C20" t="n">
-        <v>1177.703947303853</v>
+        <v>851.7413961748201</v>
       </c>
       <c r="D20" t="n">
-        <v>1177.703947303853</v>
+        <v>851.7413961748201</v>
       </c>
       <c r="E20" t="n">
-        <v>743.9292024621484</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F20" t="n">
-        <v>743.9292024621484</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G20" t="n">
-        <v>342.5313710854123</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H20" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I20" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J20" t="n">
-        <v>488.6559039815464</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K20" t="n">
-        <v>488.6559039815464</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L20" t="n">
-        <v>488.6559039815464</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M20" t="n">
-        <v>488.6559039815464</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N20" t="n">
-        <v>632.7278666362198</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O20" t="n">
-        <v>1293.567921177998</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P20" t="n">
-        <v>1954.407975719776</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q20" t="n">
-        <v>2500.906761678371</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R20" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S20" t="n">
-        <v>2586.408952615265</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T20" t="n">
-        <v>2366.341725488303</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U20" t="n">
-        <v>2107.11942280532</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V20" t="n">
-        <v>1744.502472739146</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W20" t="n">
-        <v>1744.502472739146</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X20" t="n">
-        <v>1744.502472739146</v>
+        <v>1278.040966659728</v>
       </c>
       <c r="Y20" t="n">
-        <v>1744.502472739146</v>
+        <v>1278.040966659728</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1512.992809943912</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C21" t="n">
-        <v>1406.536348780554</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D21" t="n">
-        <v>1311.446059927107</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E21" t="n">
-        <v>1217.325645254061</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F21" t="n">
-        <v>1133.941806870223</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G21" t="n">
-        <v>1048.556717136407</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H21" t="n">
-        <v>1006.821064952619</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I21" t="n">
-        <v>1032.884738113077</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J21" t="n">
-        <v>1357.443063079289</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K21" t="n">
-        <v>2012.149109705013</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L21" t="n">
-        <v>2012.149109705013</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="M21" t="n">
-        <v>2012.149109705013</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="N21" t="n">
-        <v>2012.149109705013</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="O21" t="n">
-        <v>2012.149109705013</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P21" t="n">
-        <v>2012.149109705013</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q21" t="n">
-        <v>2552.888048337089</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R21" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S21" t="n">
-        <v>2606.605388879811</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T21" t="n">
-        <v>2476.426745210413</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U21" t="n">
-        <v>2300.090198210381</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V21" t="n">
-        <v>2100.97268027238</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W21" t="n">
-        <v>1915.649926005574</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X21" t="n">
-        <v>1760.782490244454</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y21" t="n">
-        <v>1634.296711023675</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1132.45937714051</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="C22" t="n">
-        <v>959.897665623735</v>
+        <v>713.3537632656333</v>
       </c>
       <c r="D22" t="n">
-        <v>794.0196728252577</v>
+        <v>547.4757704671561</v>
       </c>
       <c r="E22" t="n">
-        <v>624.2616690759949</v>
+        <v>377.7177667178933</v>
       </c>
       <c r="F22" t="n">
-        <v>447.554615037751</v>
+        <v>201.0107126796495</v>
       </c>
       <c r="G22" t="n">
-        <v>281.9633400635787</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H22" t="n">
-        <v>142.0611657539532</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I22" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J22" t="n">
-        <v>139.9809016933184</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K22" t="n">
-        <v>414.739356264454</v>
+        <v>341.3779633559367</v>
       </c>
       <c r="L22" t="n">
-        <v>832.9492380324151</v>
+        <v>341.3779633559367</v>
       </c>
       <c r="M22" t="n">
-        <v>1292.433105213328</v>
+        <v>761.43086230084</v>
       </c>
       <c r="N22" t="n">
-        <v>1734.691908370973</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O22" t="n">
-        <v>2154.361157596754</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P22" t="n">
-        <v>2501.868051567096</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q22" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R22" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S22" t="n">
-        <v>2510.819457729425</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.94001130788</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U22" t="n">
-        <v>1986.507010560985</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V22" t="n">
-        <v>1699.551502431416</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W22" t="n">
-        <v>1427.525098017707</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="X22" t="n">
-        <v>1427.525098017707</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="Y22" t="n">
-        <v>1324.277995859497</v>
+        <v>885.9154747824084</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1744.502472739146</v>
+        <v>2078.225803160042</v>
       </c>
       <c r="C23" t="n">
-        <v>1306.35999992257</v>
+        <v>1640.083330343465</v>
       </c>
       <c r="D23" t="n">
-        <v>870.4502150970143</v>
+        <v>1204.173545517909</v>
       </c>
       <c r="E23" t="n">
-        <v>870.4502150970143</v>
+        <v>770.3988006762045</v>
       </c>
       <c r="F23" t="n">
-        <v>743.9292024621484</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G23" t="n">
         <v>342.5313710854123</v>
@@ -5987,25 +5989,25 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J23" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K23" t="n">
-        <v>1149.495958523325</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L23" t="n">
-        <v>1149.495958523325</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M23" t="n">
-        <v>1149.495958523325</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N23" t="n">
-        <v>1293.567921177998</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O23" t="n">
-        <v>1954.407975719776</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P23" t="n">
-        <v>1954.407975719776</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="Q23" t="n">
         <v>2500.906761678371</v>
@@ -6023,16 +6025,16 @@
         <v>2107.11942280532</v>
       </c>
       <c r="V23" t="n">
-        <v>1744.502472739146</v>
+        <v>2078.225803160042</v>
       </c>
       <c r="W23" t="n">
-        <v>1744.502472739146</v>
+        <v>2078.225803160042</v>
       </c>
       <c r="X23" t="n">
-        <v>1744.502472739146</v>
+        <v>2078.225803160042</v>
       </c>
       <c r="Y23" t="n">
-        <v>1744.502472739146</v>
+        <v>2078.225803160042</v>
       </c>
     </row>
     <row r="24">
@@ -6069,22 +6071,22 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K24" t="n">
-        <v>1058.729261281022</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="L24" t="n">
-        <v>1058.729261281022</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="M24" t="n">
-        <v>1058.729261281022</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="N24" t="n">
-        <v>1058.729261281022</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="O24" t="n">
-        <v>1058.729261281022</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="P24" t="n">
-        <v>1058.729261281022</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q24" t="n">
         <v>1599.468199913098</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1132.45937714051</v>
+        <v>900.7186013536161</v>
       </c>
       <c r="C25" t="n">
-        <v>959.897665623735</v>
+        <v>728.1568898368411</v>
       </c>
       <c r="D25" t="n">
-        <v>794.0196728252577</v>
+        <v>562.2788970383638</v>
       </c>
       <c r="E25" t="n">
-        <v>624.2616690759949</v>
+        <v>392.520893289101</v>
       </c>
       <c r="F25" t="n">
-        <v>447.554615037751</v>
+        <v>215.8138392508572</v>
       </c>
       <c r="G25" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H25" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I25" t="n">
         <v>53.40121652862856</v>
@@ -6169,28 +6171,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R25" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S25" t="n">
-        <v>2510.819457729425</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T25" t="n">
-        <v>2510.819457729425</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U25" t="n">
-        <v>2232.38645698253</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V25" t="n">
-        <v>2069.115825625685</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W25" t="n">
-        <v>1797.089421211977</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X25" t="n">
-        <v>1551.697666545389</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y25" t="n">
-        <v>1324.277995859497</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="26">
@@ -6200,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1410.650424259778</v>
+        <v>899.0604388335504</v>
       </c>
       <c r="C26" t="n">
-        <v>972.5079514432014</v>
+        <v>899.0604388335504</v>
       </c>
       <c r="D26" t="n">
-        <v>888.9905821199295</v>
+        <v>899.0604388335504</v>
       </c>
       <c r="E26" t="n">
-        <v>455.2158372782247</v>
+        <v>899.0604388335504</v>
       </c>
       <c r="F26" t="n">
-        <v>455.2158372782247</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G26" t="n">
-        <v>53.81800590148855</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H26" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I26" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J26" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K26" t="n">
-        <v>714.2412710704069</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L26" t="n">
-        <v>714.2412710704069</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M26" t="n">
-        <v>714.2412710704069</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N26" t="n">
-        <v>714.2412710704069</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O26" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P26" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q26" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R26" t="n">
         <v>2670.060826431428</v>
@@ -6254,22 +6256,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T26" t="n">
-        <v>2586.408952615265</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U26" t="n">
-        <v>2586.408952615265</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V26" t="n">
-        <v>2223.792002549091</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="W26" t="n">
-        <v>1818.936547960124</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="X26" t="n">
-        <v>1818.936547960124</v>
+        <v>1325.360009318458</v>
       </c>
       <c r="Y26" t="n">
-        <v>1410.650424259778</v>
+        <v>1325.360009318458</v>
       </c>
     </row>
     <row r="27">
@@ -6297,7 +6299,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H27" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I27" t="n">
         <v>79.46488968908616</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1132.45937714051</v>
+        <v>990.3147246321325</v>
       </c>
       <c r="C28" t="n">
-        <v>959.897665623735</v>
+        <v>817.7530131153575</v>
       </c>
       <c r="D28" t="n">
-        <v>794.0196728252577</v>
+        <v>651.8750203168802</v>
       </c>
       <c r="E28" t="n">
-        <v>624.2616690759949</v>
+        <v>482.1170165676174</v>
       </c>
       <c r="F28" t="n">
-        <v>447.554615037751</v>
+        <v>305.4099625293736</v>
       </c>
       <c r="G28" t="n">
-        <v>281.9633400635787</v>
+        <v>139.8186875552013</v>
       </c>
       <c r="H28" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I28" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J28" t="n">
         <v>139.9809016933184</v>
@@ -6394,7 +6396,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N28" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O28" t="n">
         <v>2154.361157596754</v>
@@ -6409,25 +6411,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S28" t="n">
-        <v>2670.060826431428</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T28" t="n">
-        <v>2634.504334502149</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U28" t="n">
-        <v>2356.071333755254</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V28" t="n">
-        <v>2069.115825625685</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W28" t="n">
-        <v>1797.089421211977</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X28" t="n">
-        <v>1551.697666545389</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y28" t="n">
-        <v>1324.277995859497</v>
+        <v>1182.13334335112</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1178.554482038442</v>
+        <v>1789.512437976118</v>
       </c>
       <c r="C29" t="n">
-        <v>1178.554482038442</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="D29" t="n">
-        <v>1178.554482038442</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E29" t="n">
-        <v>882.6664774961569</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F29" t="n">
-        <v>454.7990479053647</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="G29" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H29" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I29" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J29" t="n">
         <v>488.6559039815464</v>
@@ -6479,10 +6481,10 @@
         <v>1293.567921177998</v>
       </c>
       <c r="P29" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q29" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R29" t="n">
         <v>2670.060826431428</v>
@@ -6494,19 +6496,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U29" t="n">
-        <v>2410.838523748444</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V29" t="n">
-        <v>2410.838523748444</v>
+        <v>2624.098132161372</v>
       </c>
       <c r="W29" t="n">
-        <v>2005.983069159478</v>
+        <v>2624.098132161372</v>
       </c>
       <c r="X29" t="n">
-        <v>1586.840605738788</v>
+        <v>2624.098132161372</v>
       </c>
       <c r="Y29" t="n">
-        <v>1178.554482038442</v>
+        <v>2215.812008461025</v>
       </c>
     </row>
     <row r="30">
@@ -6534,7 +6536,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H30" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I30" t="n">
         <v>79.46488968908616</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>741.4772326516127</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C31" t="n">
-        <v>568.9155211348376</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D31" t="n">
-        <v>568.9155211348376</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E31" t="n">
-        <v>399.1575173855749</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F31" t="n">
-        <v>222.4504633473311</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G31" t="n">
-        <v>56.85918837315873</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H31" t="n">
-        <v>56.85918837315873</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I31" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J31" t="n">
         <v>139.9809016933184</v>
@@ -6625,7 +6627,7 @@
         <v>414.739356264454</v>
       </c>
       <c r="L31" t="n">
-        <v>832.9492380324151</v>
+        <v>832.9492380324152</v>
       </c>
       <c r="M31" t="n">
         <v>1292.433105213328</v>
@@ -6643,28 +6645,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R31" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S31" t="n">
-        <v>2489.401636434797</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.522190013252</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U31" t="n">
-        <v>1965.089189266357</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V31" t="n">
-        <v>1678.133681136788</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W31" t="n">
-        <v>1406.107276723079</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X31" t="n">
-        <v>1160.715522056492</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y31" t="n">
-        <v>933.2958513705998</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="32">
@@ -6674,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>752.2549115535338</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="C32" t="n">
-        <v>455.2158372782247</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="D32" t="n">
-        <v>455.2158372782247</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E32" t="n">
-        <v>455.2158372782247</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F32" t="n">
-        <v>455.2158372782247</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="G32" t="n">
-        <v>53.81800590148855</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H32" t="n">
-        <v>53.81800590148855</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I32" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J32" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K32" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L32" t="n">
-        <v>488.6559039815464</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M32" t="n">
-        <v>488.6559039815464</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N32" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O32" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P32" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q32" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R32" t="n">
         <v>2670.060826431428</v>
@@ -6731,19 +6733,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U32" t="n">
-        <v>2410.838523748444</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V32" t="n">
-        <v>2410.838523748444</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W32" t="n">
-        <v>2005.983069159478</v>
+        <v>2605.098122765485</v>
       </c>
       <c r="X32" t="n">
-        <v>1586.840605738788</v>
+        <v>2185.955659344796</v>
       </c>
       <c r="Y32" t="n">
-        <v>1178.554482038442</v>
+        <v>1777.669535644449</v>
       </c>
     </row>
     <row r="33">
@@ -6771,7 +6773,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H33" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I33" t="n">
         <v>79.46488968908616</v>
@@ -6847,28 +6849,28 @@
         <v>218.9924915028009</v>
       </c>
       <c r="G34" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H34" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I34" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J34" t="n">
-        <v>139.9809016933183</v>
+        <v>139.9809016933188</v>
       </c>
       <c r="K34" t="n">
-        <v>414.7393562644539</v>
+        <v>414.7393562644543</v>
       </c>
       <c r="L34" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324155</v>
       </c>
       <c r="M34" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N34" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O34" t="n">
         <v>2154.361157596754</v>
@@ -6880,22 +6882,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R34" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S34" t="n">
-        <v>2648.6430051368</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T34" t="n">
-        <v>2402.763558715255</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U34" t="n">
-        <v>2124.33055796836</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V34" t="n">
-        <v>1837.375049838791</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W34" t="n">
-        <v>1565.348645425082</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X34" t="n">
         <v>1323.135543010439</v>
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1355.320903761553</v>
+        <v>2078.642592532902</v>
       </c>
       <c r="C35" t="n">
-        <v>917.1784309449763</v>
+        <v>1640.500119716325</v>
       </c>
       <c r="D35" t="n">
-        <v>481.2686461194208</v>
+        <v>1204.590334890769</v>
       </c>
       <c r="E35" t="n">
-        <v>481.2686461194208</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F35" t="n">
-        <v>53.40121652862856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G35" t="n">
-        <v>53.40121652862856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H35" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I35" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J35" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K35" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L35" t="n">
-        <v>714.2412710704069</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M35" t="n">
-        <v>1375.081325612185</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N35" t="n">
-        <v>2035.921380153963</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O35" t="n">
-        <v>2670.060826431428</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P35" t="n">
-        <v>2670.060826431428</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q35" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R35" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S35" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T35" t="n">
-        <v>2366.341725488303</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U35" t="n">
-        <v>2107.11942280532</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V35" t="n">
-        <v>1774.463367182242</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W35" t="n">
-        <v>1774.463367182242</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="X35" t="n">
-        <v>1355.320903761553</v>
+        <v>2504.942163017809</v>
       </c>
       <c r="Y35" t="n">
-        <v>1355.320903761553</v>
+        <v>2504.942163017809</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>559.5729615199214</v>
+        <v>1512.992809943912</v>
       </c>
       <c r="C36" t="n">
-        <v>453.1165003565636</v>
+        <v>1406.536348780555</v>
       </c>
       <c r="D36" t="n">
-        <v>358.0262115031169</v>
+        <v>1311.446059927108</v>
       </c>
       <c r="E36" t="n">
-        <v>263.9057968300706</v>
+        <v>1217.325645254062</v>
       </c>
       <c r="F36" t="n">
-        <v>180.5219584462322</v>
+        <v>1133.941806870223</v>
       </c>
       <c r="G36" t="n">
-        <v>95.13686871241609</v>
+        <v>1048.556717136407</v>
       </c>
       <c r="H36" t="n">
-        <v>53.40121652862856</v>
+        <v>1006.82106495262</v>
       </c>
       <c r="I36" t="n">
-        <v>53.40121652862856</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="J36" t="n">
-        <v>53.40121652862856</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="K36" t="n">
-        <v>53.40121652862856</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="L36" t="n">
-        <v>53.40121652862856</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="M36" t="n">
-        <v>714.2412710704069</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="N36" t="n">
-        <v>1175.902039375362</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="O36" t="n">
-        <v>1175.902039375362</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="P36" t="n">
-        <v>1175.902039375362</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="Q36" t="n">
-        <v>1716.640978007438</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="R36" t="n">
-        <v>1716.640978007438</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S36" t="n">
-        <v>1653.185540455821</v>
+        <v>2606.605388879811</v>
       </c>
       <c r="T36" t="n">
-        <v>1523.006896786422</v>
+        <v>2476.426745210413</v>
       </c>
       <c r="U36" t="n">
-        <v>1346.67034978639</v>
+        <v>2300.090198210381</v>
       </c>
       <c r="V36" t="n">
-        <v>1147.55283184839</v>
+        <v>2100.972680272381</v>
       </c>
       <c r="W36" t="n">
-        <v>962.2300775815838</v>
+        <v>1915.649926005575</v>
       </c>
       <c r="X36" t="n">
-        <v>807.3626418204638</v>
+        <v>1760.782490244455</v>
       </c>
       <c r="Y36" t="n">
-        <v>680.8768625996845</v>
+        <v>1634.296711023675</v>
       </c>
     </row>
     <row r="37">
@@ -7069,43 +7071,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1132.45937714051</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C37" t="n">
-        <v>959.897665623735</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D37" t="n">
-        <v>794.0196728252577</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E37" t="n">
-        <v>624.2616690759949</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F37" t="n">
-        <v>447.554615037751</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G37" t="n">
-        <v>281.9633400635787</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H37" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I37" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J37" t="n">
-        <v>139.9809016933183</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K37" t="n">
-        <v>414.7393562644539</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L37" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M37" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N37" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O37" t="n">
         <v>2154.361157596754</v>
@@ -7123,22 +7125,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T37" t="n">
-        <v>2634.504334502149</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U37" t="n">
-        <v>2356.071333755254</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V37" t="n">
-        <v>2069.115825625685</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W37" t="n">
-        <v>1797.089421211977</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X37" t="n">
-        <v>1551.697666545389</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y37" t="n">
-        <v>1324.277995859497</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>991.5079608390885</v>
+        <v>1754.583695154438</v>
       </c>
       <c r="C38" t="n">
-        <v>991.5079608390885</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="D38" t="n">
-        <v>991.5079608390885</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E38" t="n">
-        <v>557.7332159973837</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F38" t="n">
-        <v>129.8657864065914</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G38" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H38" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I38" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J38" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K38" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L38" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M38" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N38" t="n">
-        <v>632.7278666362198</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O38" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P38" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q38" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R38" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S38" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T38" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U38" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V38" t="n">
-        <v>2223.792002549091</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W38" t="n">
-        <v>1818.936547960124</v>
+        <v>2600.025729060035</v>
       </c>
       <c r="X38" t="n">
-        <v>1399.794084539435</v>
+        <v>2180.883265639346</v>
       </c>
       <c r="Y38" t="n">
-        <v>991.5079608390885</v>
+        <v>2180.883265639346</v>
       </c>
     </row>
     <row r="39">
@@ -7245,25 +7247,25 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H39" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I39" t="n">
-        <v>53.40121652862856</v>
+        <v>73.33088177303142</v>
       </c>
       <c r="J39" t="n">
-        <v>377.9595414948409</v>
+        <v>397.8892067392438</v>
       </c>
       <c r="K39" t="n">
-        <v>1038.799596036619</v>
+        <v>397.8892067392438</v>
       </c>
       <c r="L39" t="n">
-        <v>1058.729261281022</v>
+        <v>397.8892067392438</v>
       </c>
       <c r="M39" t="n">
-        <v>1058.729261281022</v>
+        <v>397.8892067392438</v>
       </c>
       <c r="N39" t="n">
-        <v>1058.729261281022</v>
+        <v>397.8892067392438</v>
       </c>
       <c r="O39" t="n">
         <v>1058.729261281022</v>
@@ -7306,43 +7308,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>922.1364226482438</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C40" t="n">
-        <v>749.5747111314687</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D40" t="n">
-        <v>583.6967183329914</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E40" t="n">
-        <v>413.9387145837287</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F40" t="n">
-        <v>281.9633400635787</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G40" t="n">
-        <v>281.9633400635787</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H40" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I40" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J40" t="n">
-        <v>139.9809016933183</v>
+        <v>139.9809016933188</v>
       </c>
       <c r="K40" t="n">
-        <v>414.7393562644539</v>
+        <v>414.7393562644543</v>
       </c>
       <c r="L40" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324155</v>
       </c>
       <c r="M40" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N40" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O40" t="n">
         <v>2154.361157596754</v>
@@ -7363,13 +7365,13 @@
         <v>2424.181380009883</v>
       </c>
       <c r="U40" t="n">
-        <v>2145.748379262988</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V40" t="n">
         <v>1858.792871133419</v>
       </c>
       <c r="W40" t="n">
-        <v>1586.76646671971</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X40" t="n">
         <v>1341.374712053123</v>
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1650.358373569249</v>
+        <v>1213.635879497017</v>
       </c>
       <c r="C41" t="n">
-        <v>1212.215900752673</v>
+        <v>1213.635879497017</v>
       </c>
       <c r="D41" t="n">
-        <v>776.3061159271172</v>
+        <v>888.5737927470695</v>
       </c>
       <c r="E41" t="n">
-        <v>342.5313710854123</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="F41" t="n">
-        <v>342.5313710854123</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G41" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H41" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I41" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J41" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K41" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L41" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M41" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N41" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O41" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P41" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q41" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R41" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S41" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T41" t="n">
-        <v>2366.341725488303</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U41" t="n">
-        <v>2107.11942280532</v>
+        <v>2410.838523748445</v>
       </c>
       <c r="V41" t="n">
-        <v>1744.502472739146</v>
+        <v>2048.221573682272</v>
       </c>
       <c r="W41" t="n">
-        <v>1650.358373569249</v>
+        <v>2048.221573682272</v>
       </c>
       <c r="X41" t="n">
-        <v>1650.358373569249</v>
+        <v>2048.221573682272</v>
       </c>
       <c r="Y41" t="n">
-        <v>1650.358373569249</v>
+        <v>1639.935449981925</v>
       </c>
     </row>
     <row r="42">
@@ -7482,7 +7484,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H42" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I42" t="n">
         <v>79.46488968908616</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>741.4772326516127</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C43" t="n">
-        <v>568.9155211348376</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D43" t="n">
-        <v>403.0375283363603</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E43" t="n">
-        <v>403.0375283363603</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F43" t="n">
-        <v>226.3304742981165</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G43" t="n">
-        <v>60.73919932394418</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H43" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I43" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J43" t="n">
         <v>139.9809016933184</v>
@@ -7600,19 +7602,19 @@
         <v>2243.522190013252</v>
       </c>
       <c r="U43" t="n">
-        <v>1965.089189266357</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="V43" t="n">
-        <v>1678.133681136788</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W43" t="n">
-        <v>1406.107276723079</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X43" t="n">
-        <v>1160.715522056492</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y43" t="n">
-        <v>933.2958513705998</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>572.5498400944083</v>
+        <v>893.3583100948014</v>
       </c>
       <c r="C44" t="n">
-        <v>572.5498400944083</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="D44" t="n">
-        <v>572.5498400944083</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="E44" t="n">
-        <v>572.5498400944083</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="F44" t="n">
-        <v>435.3414999783445</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G44" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H44" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I44" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J44" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K44" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L44" t="n">
-        <v>1294.102365436318</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M44" t="n">
-        <v>1294.102365436318</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N44" t="n">
-        <v>1294.102365436318</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O44" t="n">
-        <v>1697.183430080417</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P44" t="n">
-        <v>1697.183430080417</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q44" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R44" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S44" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T44" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U44" t="n">
-        <v>1354.309253581271</v>
+        <v>2410.838523748445</v>
       </c>
       <c r="V44" t="n">
-        <v>991.6923035150976</v>
+        <v>2048.221573682272</v>
       </c>
       <c r="W44" t="n">
-        <v>991.6923035150976</v>
+        <v>1643.366119093305</v>
       </c>
       <c r="X44" t="n">
-        <v>572.5498400944083</v>
+        <v>1301.644433795148</v>
       </c>
       <c r="Y44" t="n">
-        <v>572.5498400944083</v>
+        <v>893.3583100948014</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C45" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D45" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E45" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F45" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G45" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H45" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I45" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J45" t="n">
-        <v>60.00734176206595</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K45" t="n">
-        <v>60.00734176206595</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L45" t="n">
-        <v>480.0602407069692</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M45" t="n">
-        <v>900.1131396518725</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N45" t="n">
-        <v>900.1131396518725</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O45" t="n">
-        <v>900.1131396518725</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P45" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q45" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R45" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S45" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T45" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U45" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V45" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W45" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X45" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y45" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>33.94366860160834</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C46" t="n">
-        <v>33.94366860160834</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D46" t="n">
-        <v>33.94366860160834</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E46" t="n">
-        <v>33.94366860160834</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F46" t="n">
-        <v>33.94366860160834</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G46" t="n">
-        <v>33.94366860160834</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H46" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I46" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J46" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933182</v>
       </c>
       <c r="K46" t="n">
-        <v>395.2818083374338</v>
+        <v>414.7393562644535</v>
       </c>
       <c r="L46" t="n">
-        <v>813.4916901053949</v>
+        <v>832.9492380324147</v>
       </c>
       <c r="M46" t="n">
-        <v>813.4916901053949</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N46" t="n">
-        <v>813.4916901053949</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O46" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P46" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q46" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R46" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S46" t="n">
-        <v>1537.942061378414</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T46" t="n">
-        <v>1292.062614956869</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U46" t="n">
-        <v>1013.629614209975</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V46" t="n">
-        <v>726.6741060804052</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W46" t="n">
-        <v>454.6477016666967</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X46" t="n">
-        <v>209.2559470001092</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y46" t="n">
-        <v>33.94366860160834</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7981,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,7 +7993,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -8052,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,10 +8072,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>385.2554146752023</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8140,16 +8142,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>369.8475292559658</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8216,7 +8218,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,10 +8230,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="P5" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q5" t="n">
         <v>424.2958575201044</v>
@@ -8374,16 +8376,16 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>225.3346227128309</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>370.2350542247758</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8453,7 +8455,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,7 +8467,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>424.2958575201044</v>
@@ -8532,10 +8534,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,10 +8552,10 @@
         <v>424.2958575201044</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>52.98895607821123</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8608,13 +8610,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
         <v>424.2958575201043</v>
@@ -8623,13 +8625,13 @@
         <v>424.2958575201044</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>151.6683048404234</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,22 +8689,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="P11" t="n">
         <v>424.2958575201044</v>
@@ -8763,28 +8765,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>288.7962490401609</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="P12" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L12" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>424.2958575201044</v>
@@ -8845,25 +8847,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>56.52305090189834</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>424.2958575201043</v>
+        <v>321.9475215913873</v>
       </c>
       <c r="N13" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O13" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -8927,7 +8929,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8939,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>424.2958575201044</v>
@@ -9006,19 +9008,19 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>358.9284720888815</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>424.2958575201044</v>
@@ -9082,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -9091,13 +9093,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N16" t="n">
-        <v>35.25505765581499</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>351.0170646165068</v>
@@ -9161,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K17" t="n">
-        <v>236.2898988798406</v>
+        <v>407.152590549595</v>
       </c>
       <c r="L17" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9185,7 +9187,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L18" t="n">
-        <v>358.9284720888814</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9261,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>424.2958575201044</v>
+        <v>385.2554146752025</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9319,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -9337,7 +9339,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>150.1941962971705</v>
+        <v>237.6484237362511</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821538</v>
@@ -9398,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9410,16 +9412,16 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9480,10 +9482,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9559,19 +9561,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>223.0854642319581</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>351.0170646165068</v>
@@ -9635,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>469.682203560008</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -9717,10 +9719,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158827</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9735,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9872,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9884,13 +9886,13 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="O26" t="n">
-        <v>585.1784344521124</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P26" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157522</v>
@@ -10039,10 +10041,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645589</v>
       </c>
       <c r="N28" t="n">
-        <v>446.7260637956003</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512944</v>
@@ -10115,7 +10117,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L29" t="n">
-        <v>145.5272350047205</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10127,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
@@ -10349,22 +10351,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
@@ -10504,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908102</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -10583,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>667.5152066078567</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="O35" t="n">
-        <v>640.5448952297625</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,22 +10661,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158822</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>466.3240083888435</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10686,7 +10688,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10741,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -10750,7 +10752,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645589</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
@@ -10832,13 +10834,13 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>585.1784344521124</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="O38" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P38" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
@@ -10896,16 +10898,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>20.13097499434632</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>20.13097499434639</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10978,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908102</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -11060,7 +11062,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11069,13 +11071,13 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P41" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11294,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L44" t="n">
-        <v>424.2958575201044</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,16 +11311,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,16 +11375,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11391,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>262.4693064538402</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -11461,13 +11463,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
@@ -22544,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>57.48749329856889</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>294.2443573616788</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22613,7 +22615,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22711,19 +22713,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>27.25145670635368</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>37.93967370487039</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22781,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>374.8864093103448</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D5" t="n">
         <v>431.5506869772999</v>
@@ -22793,7 +22795,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -22802,7 +22804,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22838,7 +22840,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>208.3601904820881</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -22939,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>186.156384173066</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -22954,13 +22956,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,13 +22989,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -23005,7 +23007,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>71.19893311280666</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -23030,16 +23032,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>238.381585316282</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23087,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>329.7284710573622</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -23176,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>186.156384173066</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,16 +23226,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>83.83779588133126</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -23242,10 +23244,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -23255,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>28.34456025427443</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -23273,7 +23275,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>218.5834710056094</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -23315,10 +23317,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>70.10167305096083</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>34.740929790389</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23467,22 +23469,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -23501,10 +23503,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>5.14113987318342</v>
+        <v>24.02050955915126</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -23546,10 +23548,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>90.72492224929509</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.76923523602619</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>101.0685279790871</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,19 +23703,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -23738,19 +23740,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>361.7816153876813</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23798,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>330.1410925364936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23887,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>83.83779588133098</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>50.38954730677857</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
@@ -23941,7 +23943,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -23969,22 +23971,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>294.6670826875293</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>43.40600239069244</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -24017,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>137.0421411536991</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>122.9308428424049</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -24212,13 +24214,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>298.3329527863671</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24263,7 +24265,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>330.3860971166862</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>3.146865729424235</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>122.4480280049972</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24440,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>348.8684913472608</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>270.0088312871964</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24494,22 +24496,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>52.94985625022224</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24651,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>136.5078728964259</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H29" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24734,16 +24736,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>313.4877132381562</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24841,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>84.34995760698655</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24917,19 +24919,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>139.6923645558549</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
         <v>286.2388530112159</v>
@@ -24971,13 +24973,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>336.4938234137929</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>3.146865729424746</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25160,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25169,10 +25171,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>29.6612854986646</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>251.4835620069998</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25365,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25388,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -25403,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>321.6839288837855</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>286.2388530112159</v>
@@ -25439,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -25448,16 +25450,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>331.472153645398</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25558,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>44.28436272291287</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25625,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>109.7392210948515</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,10 +25642,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -25676,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25688,13 +25690,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>307.6042418648789</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25792,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>131.2385495991668</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>111.4236523045825</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25865,7 +25867,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -25874,7 +25876,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>287.7524985799811</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25883,7 +25885,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
@@ -25925,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>76.64657034130687</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26071,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>51.58631836451698</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>354840.9552426119</v>
+        <v>354840.9552426118</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>499175.394566284</v>
+        <v>354840.9552426118</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>499175.3945662841</v>
+        <v>499175.3945662843</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>499175.3945662841</v>
+        <v>499175.3945662843</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>354840.9552426119</v>
+        <v>499175.3945662843</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>78131.51941534779</v>
+        <v>78131.51941534776</v>
       </c>
       <c r="C2" t="n">
-        <v>78131.51941534779</v>
+        <v>78131.51941534778</v>
       </c>
       <c r="D2" t="n">
-        <v>78131.51941534779</v>
+        <v>78131.51941534781</v>
       </c>
       <c r="E2" t="n">
         <v>78131.51941534779</v>
@@ -26329,7 +26331,7 @@
         <v>78131.51941534779</v>
       </c>
       <c r="H2" t="n">
-        <v>109912.1492488192</v>
+        <v>78131.51941534779</v>
       </c>
       <c r="I2" t="n">
         <v>109912.1492488192</v>
@@ -26353,7 +26355,7 @@
         <v>109912.1492488192</v>
       </c>
       <c r="P2" t="n">
-        <v>78131.51941534781</v>
+        <v>109912.1492488192</v>
       </c>
     </row>
     <row r="3">
@@ -26381,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>65622.76935801745</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>64677.13252876426</v>
       </c>
       <c r="J3" t="n">
         <v>111014.4653449902</v>
@@ -26433,10 +26435,10 @@
         <v>12632.2219864234</v>
       </c>
       <c r="H4" t="n">
+        <v>12632.2219864234</v>
+      </c>
+      <c r="I4" t="n">
         <v>17770.48083418235</v>
-      </c>
-      <c r="I4" t="n">
-        <v>17770.48083418234</v>
       </c>
       <c r="J4" t="n">
         <v>17770.48083418235</v>
@@ -26451,13 +26453,13 @@
         <v>17770.48083418235</v>
       </c>
       <c r="N4" t="n">
-        <v>17770.48083418234</v>
+        <v>17770.48083418235</v>
       </c>
       <c r="O4" t="n">
-        <v>17770.48083418234</v>
+        <v>17770.48083418235</v>
       </c>
       <c r="P4" t="n">
-        <v>12632.2219864234</v>
+        <v>17770.48083418235</v>
       </c>
     </row>
     <row r="5">
@@ -26485,31 +26487,31 @@
         <v>25797.18813722234</v>
       </c>
       <c r="H5" t="n">
-        <v>40584.9245617577</v>
+        <v>25797.18813722234</v>
       </c>
       <c r="I5" t="n">
         <v>40584.9245617577</v>
       </c>
       <c r="J5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="K5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="L5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="M5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="N5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="O5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="P5" t="n">
-        <v>25797.18813722234</v>
+        <v>40584.92456175771</v>
       </c>
     </row>
     <row r="6">
@@ -26522,10 +26524,10 @@
         <v>-136116.7913680079</v>
       </c>
       <c r="C6" t="n">
-        <v>6074.509291702052</v>
+        <v>6074.509291702037</v>
       </c>
       <c r="D6" t="n">
-        <v>6074.509291702052</v>
+        <v>6074.509291702067</v>
       </c>
       <c r="E6" t="n">
         <v>39702.10929170205</v>
@@ -26537,31 +26539,31 @@
         <v>39702.10929170205</v>
       </c>
       <c r="H6" t="n">
-        <v>-14066.02550513832</v>
+        <v>39702.10929170205</v>
       </c>
       <c r="I6" t="n">
-        <v>51556.74385287916</v>
+        <v>-13120.38867588515</v>
       </c>
       <c r="J6" t="n">
         <v>-59457.72149211106</v>
       </c>
       <c r="K6" t="n">
-        <v>51556.74385287913</v>
+        <v>51556.74385287915</v>
       </c>
       <c r="L6" t="n">
-        <v>51556.7438528791</v>
+        <v>51556.74385287914</v>
       </c>
       <c r="M6" t="n">
-        <v>51556.74385287913</v>
+        <v>51556.74385287912</v>
       </c>
       <c r="N6" t="n">
-        <v>51556.74385287913</v>
+        <v>51556.74385287914</v>
       </c>
       <c r="O6" t="n">
-        <v>51556.74385287913</v>
+        <v>51556.74385287917</v>
       </c>
       <c r="P6" t="n">
-        <v>39702.10929170207</v>
+        <v>51556.74385287915</v>
       </c>
     </row>
   </sheetData>
@@ -26805,31 +26807,31 @@
         <v>424.2958575201043</v>
       </c>
       <c r="H4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="I4" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078571</v>
       </c>
     </row>
   </sheetData>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>243.2193490877526</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>243.2193490877526</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,7 +34701,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,7 +34713,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -34772,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34790,10 +34792,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>385.2554146752023</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34860,16 +34862,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>369.8475292559658</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -34936,7 +34938,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,10 +34950,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="P5" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q5" t="n">
         <v>424.2958575201044</v>
@@ -35094,16 +35096,16 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>225.3346227128309</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>370.2350542247758</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -35173,7 +35175,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,7 +35187,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>424.2958575201044</v>
@@ -35252,10 +35254,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,10 +35272,10 @@
         <v>424.2958575201044</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>52.98895607821123</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,13 +35330,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
         <v>424.2958575201043</v>
@@ -35343,13 +35345,13 @@
         <v>424.2958575201044</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>151.6683048404234</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,22 +35409,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="P11" t="n">
         <v>424.2958575201044</v>
@@ -35483,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>288.7962490401609</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="P12" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L12" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>424.2958575201044</v>
@@ -35565,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>56.52305090189834</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>424.2958575201043</v>
+        <v>321.9475215913873</v>
       </c>
       <c r="N13" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35647,7 +35649,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -35659,7 +35661,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>424.2958575201044</v>
@@ -35726,19 +35728,19 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>358.9284720888815</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>424.2958575201044</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35811,13 +35813,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N16" t="n">
-        <v>35.25505765581499</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>351.0170646165068</v>
@@ -35881,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K17" t="n">
-        <v>236.2898988798406</v>
+        <v>407.152590549595</v>
       </c>
       <c r="L17" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -35905,7 +35907,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L18" t="n">
-        <v>358.9284720888814</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35981,7 +35983,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>424.2958575201044</v>
+        <v>385.2554146752025</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -36057,7 +36059,7 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P19" t="n">
-        <v>150.1941962971705</v>
+        <v>237.6484237362511</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821539</v>
@@ -36118,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -36130,16 +36132,16 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697544</v>
@@ -36194,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36215,10 +36217,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36276,25 +36278,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>223.0854642319581</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821539</v>
@@ -36355,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>469.682203560008</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697544</v>
@@ -36437,10 +36439,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158827</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36455,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36592,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -36604,13 +36606,13 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="O26" t="n">
-        <v>585.1784344521124</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P26" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157523</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
@@ -36759,10 +36761,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645589</v>
       </c>
       <c r="N28" t="n">
-        <v>446.7260637956003</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512943</v>
@@ -36835,7 +36837,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L29" t="n">
-        <v>145.5272350047205</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -36847,7 +36849,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157523</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
@@ -36993,10 +36995,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -37069,22 +37071,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157523</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908102</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>667.5152066078567</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="O35" t="n">
-        <v>640.5448952297625</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158822</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>466.3240083888435</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37406,7 +37408,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094345</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37470,7 +37472,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645589</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
@@ -37552,13 +37554,13 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>585.1784344521124</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="O38" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P38" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
@@ -37616,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>20.13097499434632</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>20.13097499434639</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37634,7 +37636,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908102</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37780,7 +37782,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -37789,13 +37791,13 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P41" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -38014,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L44" t="n">
-        <v>424.2958575201044</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38029,16 +38031,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,19 +38092,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38111,10 +38113,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>262.4693064538402</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908046</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L46" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>51716.14311412271</v>
+        <v>46217.01822304454</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9134618.112059642</v>
+        <v>9134618.112059643</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
-        <v>135.1926400316089</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.0716691005147</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -825,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>231.366466664701</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>104.5356805921069</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>47.1501654697139</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>374.4268935289279</v>
+      </c>
+      <c r="D5" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.744048358731227</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -1074,7 +1074,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>119.5421914555365</v>
       </c>
     </row>
     <row r="8">
@@ -1135,13 +1135,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>374.0142720497965</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>47.85726769493389</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.744048358731227</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -1308,10 +1308,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>125.4289004454252</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>405.4164878341365</v>
+        <v>113.5236592556536</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>94.1175398195317</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>86.87080051596702</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>405.4164878341365</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>305.5961147094268</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>63.15068489140545</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>96.70452493944931</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>193.5862685966833</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>67.65538200560648</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>120.4465470948287</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>187.3150328718698</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E20" t="n">
-        <v>386.0309950025953</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>73.33236211610335</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -2253,7 +2253,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>26.89322107073152</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>52.3910641353628</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,10 +2374,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
-        <v>256.6300796561533</v>
+        <v>149.4370413361365</v>
       </c>
       <c r="V23" t="n">
-        <v>28.60468344882547</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>160.7884964950064</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2557,25 +2557,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>153.579924007688</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
-        <v>256.6300796561533</v>
+        <v>231.8397749350065</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>85.55329631630698</v>
+        <v>123.2901323038657</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -2772,7 +2772,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2781,7 +2781,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V29" t="n">
-        <v>45.50306732735552</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>216.0330892689344</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2964,10 +2964,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
         <v>0.4126214791313976</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>64.3130766292841</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>155.5869679636088</v>
       </c>
     </row>
     <row r="33">
@@ -3201,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>3.139541480022511</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>56.43256781340998</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>163.4674767794826</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3441,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>18.05677735225757</v>
+        <v>29.10461178738921</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>3.455724597150285</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>69.33474639767908</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3678,7 +3678,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>18.05677735225757</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>321.8114658824484</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>379.441511189414</v>
       </c>
     </row>
     <row r="42">
@@ -3912,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,10 +3954,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>172.6623007436913</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3982,22 +3982,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>128.50682885239</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,13 +4036,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>338.3044684451755</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4149,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>18.05677735225757</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>210.1841236695487</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1288.897306380071</v>
+        <v>462.52534286434</v>
       </c>
       <c r="C2" t="n">
-        <v>1288.897306380071</v>
+        <v>462.52534286434</v>
       </c>
       <c r="D2" t="n">
-        <v>1288.897306380071</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E2" t="n">
-        <v>1152.33908412592</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F2" t="n">
-        <v>724.4716545351282</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
         <v>33.94366860160834</v>
@@ -4333,16 +4333,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
         <v>687.9235674375537</v>
@@ -4372,10 +4372,10 @@
         <v>1697.183430080417</v>
       </c>
       <c r="X2" t="n">
-        <v>1697.183430080417</v>
+        <v>1297.111037049594</v>
       </c>
       <c r="Y2" t="n">
-        <v>1288.897306380071</v>
+        <v>888.8249133492478</v>
       </c>
     </row>
     <row r="3">
@@ -4412,19 +4412,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O3" t="n">
-        <v>804.6185656731816</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>552.97043790589</v>
+        <v>777.3658326657497</v>
       </c>
       <c r="C4" t="n">
-        <v>380.4087263891149</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="D4" t="n">
-        <v>380.4087263891149</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="E4" t="n">
-        <v>210.6507226398521</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4512,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U4" t="n">
-        <v>1451.303983658873</v>
+        <v>1397.332608038895</v>
       </c>
       <c r="V4" t="n">
-        <v>1451.303983658873</v>
+        <v>1110.377099909325</v>
       </c>
       <c r="W4" t="n">
-        <v>1217.600481977356</v>
+        <v>1110.377099909325</v>
       </c>
       <c r="X4" t="n">
-        <v>972.2087273107688</v>
+        <v>1004.785503351641</v>
       </c>
       <c r="Y4" t="n">
-        <v>744.789056624877</v>
+        <v>777.3658326657497</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>462.9421322372</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="C5" t="n">
-        <v>34.36045797446834</v>
+        <v>1318.974446717864</v>
       </c>
       <c r="D5" t="n">
-        <v>34.36045797446834</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="E5" t="n">
-        <v>34.36045797446834</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F5" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I5" t="n">
         <v>33.94366860160834</v>
@@ -4570,19 +4570,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P5" t="n">
         <v>1107.976466382457</v>
@@ -4603,16 +4603,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V5" t="n">
-        <v>1334.566480014244</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W5" t="n">
-        <v>929.7110254252771</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X5" t="n">
-        <v>510.5685620045878</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y5" t="n">
-        <v>510.5685620045878</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="6">
@@ -4652,16 +4652,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P6" t="n">
         <v>1159.957753041174</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1113.00182921349</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="C7" t="n">
-        <v>940.4401176967148</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="D7" t="n">
-        <v>774.5621248982375</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I7" t="n">
         <v>33.94366860160834</v>
@@ -4728,16 +4728,16 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K7" t="n">
-        <v>343.6046302520008</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L7" t="n">
-        <v>761.8145120199619</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M7" t="n">
-        <v>761.8145120199619</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N7" t="n">
-        <v>761.8145120199619</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O7" t="n">
         <v>1181.483761245743</v>
@@ -4749,28 +4749,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T7" t="n">
-        <v>1675.765608785789</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U7" t="n">
-        <v>1675.765608785789</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="V7" t="n">
-        <v>1388.81010065622</v>
+        <v>1164.348475529303</v>
       </c>
       <c r="W7" t="n">
-        <v>1116.783696242511</v>
+        <v>1164.348475529303</v>
       </c>
       <c r="X7" t="n">
-        <v>1116.783696242511</v>
+        <v>1164.348475529303</v>
       </c>
       <c r="Y7" t="n">
-        <v>1116.783696242511</v>
+        <v>1043.598787190377</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>510.5685620045878</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="C8" t="n">
-        <v>510.5685620045878</v>
+        <v>1268.601755817686</v>
       </c>
       <c r="D8" t="n">
-        <v>510.5685620045878</v>
+        <v>840.020081554954</v>
       </c>
       <c r="E8" t="n">
-        <v>510.5685620045878</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="F8" t="n">
-        <v>82.70113241379551</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G8" t="n">
-        <v>82.70113241379551</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H8" t="n">
         <v>34.36045797446834</v>
@@ -4807,16 +4807,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K8" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L8" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M8" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N8" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O8" t="n">
         <v>687.9235674375537</v>
@@ -4840,16 +4840,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V8" t="n">
-        <v>1334.566480014244</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W8" t="n">
-        <v>929.7110254252771</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X8" t="n">
-        <v>510.5685620045878</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y8" t="n">
-        <v>510.5685620045878</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="9">
@@ -4862,7 +4862,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D9" t="n">
         <v>338.5686635760967</v>
@@ -4871,10 +4871,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H9" t="n">
         <v>33.94366860160834</v>
@@ -4889,22 +4889,22 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L9" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M9" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N9" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O9" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P9" t="n">
-        <v>1644.724363562988</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q9" t="n">
-        <v>1644.724363562988</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R9" t="n">
         <v>1697.183430080417</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1113.00182921349</v>
+        <v>884.4397056785397</v>
       </c>
       <c r="C10" t="n">
-        <v>940.4401176967148</v>
+        <v>711.8779941617646</v>
       </c>
       <c r="D10" t="n">
-        <v>774.5621248982375</v>
+        <v>546.0000013632873</v>
       </c>
       <c r="E10" t="n">
-        <v>604.8041211489747</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0970671107308</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I10" t="n">
         <v>33.94366860160834</v>
@@ -4965,19 +4965,19 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K10" t="n">
-        <v>120.5233537662982</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L10" t="n">
-        <v>538.7332355342593</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M10" t="n">
-        <v>958.7861344791625</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="N10" t="n">
-        <v>1378.839033424066</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="O10" t="n">
-        <v>1378.839033424066</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P10" t="n">
         <v>1528.990655216085</v>
@@ -4998,16 +4998,16 @@
         <v>1675.765608785789</v>
       </c>
       <c r="V10" t="n">
-        <v>1388.81010065622</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="W10" t="n">
-        <v>1116.783696242511</v>
+        <v>1549.069749750006</v>
       </c>
       <c r="X10" t="n">
-        <v>1116.783696242511</v>
+        <v>1303.677995083419</v>
       </c>
       <c r="Y10" t="n">
-        <v>1116.783696242511</v>
+        <v>1076.258324397527</v>
       </c>
     </row>
     <row r="11">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>443.4552724744735</v>
+        <v>866.0284050065428</v>
       </c>
       <c r="C11" t="n">
-        <v>33.94366860160834</v>
+        <v>751.3580421220443</v>
       </c>
       <c r="D11" t="n">
-        <v>33.94366860160834</v>
+        <v>751.3580421220443</v>
       </c>
       <c r="E11" t="n">
-        <v>33.94366860160834</v>
+        <v>751.3580421220443</v>
       </c>
       <c r="F11" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G11" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H11" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I11" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J11" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K11" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L11" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M11" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N11" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O11" t="n">
         <v>687.9235674375537</v>
@@ -5080,13 +5080,13 @@
         <v>1697.183430080417</v>
       </c>
       <c r="W11" t="n">
-        <v>1697.183430080417</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="X11" t="n">
-        <v>1278.040966659728</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="Y11" t="n">
-        <v>869.7548429593813</v>
+        <v>1292.327975491451</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I12" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J12" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K12" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L12" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M12" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N12" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O12" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P12" t="n">
         <v>1159.957753041174</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>467.1648771324868</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="C13" t="n">
-        <v>294.6031656157117</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="D13" t="n">
-        <v>199.5349435757807</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E13" t="n">
-        <v>199.5349435757807</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F13" t="n">
-        <v>199.5349435757807</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G13" t="n">
         <v>33.94366860160834</v>
@@ -5202,49 +5202,49 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K13" t="n">
-        <v>120.5233537662982</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L13" t="n">
-        <v>538.7332355342593</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M13" t="n">
-        <v>857.4612819097326</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N13" t="n">
-        <v>1277.514180854636</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O13" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P13" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q13" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R13" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S13" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T13" t="n">
-        <v>1697.183430080417</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U13" t="n">
-        <v>1418.750429333523</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V13" t="n">
-        <v>1131.794921203953</v>
+        <v>1063.704878267888</v>
       </c>
       <c r="W13" t="n">
-        <v>1131.794921203953</v>
+        <v>791.6784738541797</v>
       </c>
       <c r="X13" t="n">
-        <v>886.4031665373657</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="Y13" t="n">
-        <v>658.9834958514739</v>
+        <v>546.2867191875922</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>443.4552724744735</v>
+        <v>462.9421322372</v>
       </c>
       <c r="C14" t="n">
-        <v>443.4552724744735</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="D14" t="n">
-        <v>443.4552724744735</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="E14" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="F14" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G14" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H14" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I14" t="n">
         <v>33.94366860160834</v>
@@ -5281,22 +5281,22 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K14" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L14" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M14" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N14" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O14" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P14" t="n">
-        <v>1107.976466382457</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="Q14" t="n">
         <v>1528.02936532736</v>
@@ -5305,25 +5305,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S14" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T14" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U14" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V14" t="n">
-        <v>1697.183430080417</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W14" t="n">
-        <v>1697.183430080417</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="X14" t="n">
-        <v>1278.040966659728</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="Y14" t="n">
-        <v>869.7548429593813</v>
+        <v>462.9421322372</v>
       </c>
     </row>
     <row r="15">
@@ -5360,19 +5360,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K15" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L15" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M15" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N15" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O15" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P15" t="n">
         <v>1159.957753041174</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>838.3506954956167</v>
+        <v>688.99260126473</v>
       </c>
       <c r="C16" t="n">
-        <v>838.3506954956167</v>
+        <v>516.4308897479549</v>
       </c>
       <c r="D16" t="n">
-        <v>774.5621248982375</v>
+        <v>350.5528969494776</v>
       </c>
       <c r="E16" t="n">
-        <v>604.8041211489747</v>
+        <v>350.5528969494776</v>
       </c>
       <c r="F16" t="n">
-        <v>428.0970671107308</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G16" t="n">
-        <v>262.5057921365585</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H16" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I16" t="n">
         <v>33.94366860160834</v>
@@ -5445,10 +5445,10 @@
         <v>813.4916901053949</v>
       </c>
       <c r="M16" t="n">
-        <v>1181.483761245743</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N16" t="n">
-        <v>1181.483761245743</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O16" t="n">
         <v>1181.483761245743</v>
@@ -5460,28 +5460,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R16" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S16" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T16" t="n">
-        <v>1675.765608785789</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U16" t="n">
-        <v>1397.332608038895</v>
+        <v>1353.622645336196</v>
       </c>
       <c r="V16" t="n">
-        <v>1110.377099909325</v>
+        <v>1353.622645336196</v>
       </c>
       <c r="W16" t="n">
-        <v>838.3506954956167</v>
+        <v>1353.622645336196</v>
       </c>
       <c r="X16" t="n">
-        <v>838.3506954956167</v>
+        <v>1108.230890669609</v>
       </c>
       <c r="Y16" t="n">
-        <v>838.3506954956167</v>
+        <v>880.8112199837171</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>102.2824383042412</v>
+        <v>229.9021434256636</v>
       </c>
       <c r="C17" t="n">
-        <v>102.2824383042412</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="D17" t="n">
-        <v>102.2824383042412</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="E17" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="F17" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G17" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H17" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I17" t="n">
         <v>33.94366860160834</v>
@@ -5518,25 +5518,25 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K17" t="n">
-        <v>857.0776321906106</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L17" t="n">
-        <v>857.0776321906106</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="M17" t="n">
-        <v>857.0776321906106</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="N17" t="n">
-        <v>857.0776321906106</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="O17" t="n">
-        <v>1277.130531135514</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="P17" t="n">
-        <v>1277.130531135514</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="Q17" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R17" t="n">
         <v>1697.183430080417</v>
@@ -5548,19 +5548,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U17" t="n">
-        <v>1697.183430080417</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V17" t="n">
-        <v>1334.566480014244</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="W17" t="n">
-        <v>929.7110254252771</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="X17" t="n">
-        <v>510.5685620045878</v>
+        <v>656.2017139105714</v>
       </c>
       <c r="Y17" t="n">
-        <v>102.2824383042412</v>
+        <v>656.2017139105714</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I18" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J18" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K18" t="n">
-        <v>778.554892512724</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L18" t="n">
-        <v>1198.607791457627</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.607791457627</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N18" t="n">
-        <v>1198.607791457627</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O18" t="n">
-        <v>1198.607791457627</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P18" t="n">
-        <v>1198.607791457627</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q18" t="n">
         <v>1580.010651986078</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>667.9498980712576</v>
+        <v>549.0904269551045</v>
       </c>
       <c r="C19" t="n">
-        <v>546.2867191875922</v>
+        <v>376.5287154383295</v>
       </c>
       <c r="D19" t="n">
-        <v>380.4087263891149</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="E19" t="n">
         <v>210.6507226398521</v>
@@ -5679,16 +5679,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L19" t="n">
-        <v>33.94366860160834</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M19" t="n">
-        <v>453.9965675465116</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N19" t="n">
-        <v>874.0494664914149</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O19" t="n">
-        <v>1293.718715717196</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P19" t="n">
         <v>1528.990655216085</v>
@@ -5697,28 +5697,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R19" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S19" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T19" t="n">
-        <v>1697.183430080417</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U19" t="n">
-        <v>1418.750429333523</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="V19" t="n">
-        <v>1131.794921203953</v>
+        <v>983.6892855326716</v>
       </c>
       <c r="W19" t="n">
-        <v>859.7685167902448</v>
+        <v>794.482181621692</v>
       </c>
       <c r="X19" t="n">
-        <v>859.7685167902448</v>
+        <v>549.0904269551045</v>
       </c>
       <c r="Y19" t="n">
-        <v>859.7685167902448</v>
+        <v>549.0904269551045</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>851.7413961748201</v>
+        <v>1319.391236090724</v>
       </c>
       <c r="C20" t="n">
-        <v>851.7413961748201</v>
+        <v>890.8095618279922</v>
       </c>
       <c r="D20" t="n">
-        <v>851.7413961748201</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="E20" t="n">
-        <v>461.8110981924006</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="F20" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G20" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H20" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I20" t="n">
         <v>33.94366860160834</v>
@@ -5755,16 +5755,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K20" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L20" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M20" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N20" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O20" t="n">
         <v>687.9235674375537</v>
@@ -5779,25 +5779,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S20" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T20" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U20" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V20" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="W20" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="X20" t="n">
-        <v>1278.040966659728</v>
+        <v>1319.391236090724</v>
       </c>
       <c r="Y20" t="n">
-        <v>1278.040966659728</v>
+        <v>1319.391236090724</v>
       </c>
     </row>
     <row r="21">
@@ -5810,7 +5810,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C21" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D21" t="n">
         <v>338.5686635760967</v>
@@ -5819,10 +5819,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F21" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G21" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H21" t="n">
         <v>33.94366860160834</v>
@@ -5834,19 +5834,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K21" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L21" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M21" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N21" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O21" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P21" t="n">
         <v>1159.957753041174</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>885.9154747824084</v>
+        <v>686.1888934972177</v>
       </c>
       <c r="C22" t="n">
-        <v>713.3537632656333</v>
+        <v>686.1888934972177</v>
       </c>
       <c r="D22" t="n">
-        <v>547.4757704671561</v>
+        <v>520.3109006987404</v>
       </c>
       <c r="E22" t="n">
-        <v>377.7177667178933</v>
+        <v>350.5528969494776</v>
       </c>
       <c r="F22" t="n">
-        <v>201.0107126796495</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G22" t="n">
         <v>173.8458429112338</v>
@@ -5913,16 +5913,16 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K22" t="n">
-        <v>341.3779633559367</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L22" t="n">
-        <v>341.3779633559367</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M22" t="n">
-        <v>761.43086230084</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N22" t="n">
-        <v>1181.483761245743</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O22" t="n">
         <v>1181.483761245743</v>
@@ -5934,28 +5934,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R22" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S22" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T22" t="n">
-        <v>1451.303983658873</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U22" t="n">
-        <v>1172.870982911978</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="V22" t="n">
-        <v>885.9154747824084</v>
+        <v>1622.845341982392</v>
       </c>
       <c r="W22" t="n">
-        <v>885.9154747824084</v>
+        <v>1350.818937568684</v>
       </c>
       <c r="X22" t="n">
-        <v>885.9154747824084</v>
+        <v>1105.427182902097</v>
       </c>
       <c r="Y22" t="n">
-        <v>885.9154747824084</v>
+        <v>878.0075122162048</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2078.225803160042</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C23" t="n">
-        <v>1640.083330343465</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D23" t="n">
-        <v>1204.173545517909</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E23" t="n">
-        <v>770.3988006762045</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F23" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G23" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H23" t="n">
         <v>53.40121652862856</v>
@@ -5989,25 +5989,25 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J23" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K23" t="n">
-        <v>53.40121652862856</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L23" t="n">
-        <v>714.2412710704069</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M23" t="n">
-        <v>714.2412710704069</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N23" t="n">
-        <v>714.2412710704069</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O23" t="n">
-        <v>1375.081325612185</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P23" t="n">
-        <v>2035.921380153963</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q23" t="n">
         <v>2500.906761678371</v>
@@ -6022,19 +6022,19 @@
         <v>2366.341725488303</v>
       </c>
       <c r="U23" t="n">
-        <v>2107.11942280532</v>
+        <v>2215.395219088166</v>
       </c>
       <c r="V23" t="n">
-        <v>2078.225803160042</v>
+        <v>2215.395219088166</v>
       </c>
       <c r="W23" t="n">
-        <v>2078.225803160042</v>
+        <v>2215.395219088166</v>
       </c>
       <c r="X23" t="n">
-        <v>2078.225803160042</v>
+        <v>2215.395219088166</v>
       </c>
       <c r="Y23" t="n">
-        <v>2078.225803160042</v>
+        <v>2215.395219088166</v>
       </c>
     </row>
     <row r="24">
@@ -6071,22 +6071,22 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K24" t="n">
-        <v>938.6281453713194</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L24" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M24" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N24" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O24" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P24" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q24" t="n">
         <v>1599.468199913098</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>900.7186013536161</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C25" t="n">
-        <v>728.1568898368411</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D25" t="n">
-        <v>562.2788970383638</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E25" t="n">
-        <v>392.520893289101</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F25" t="n">
-        <v>215.8138392508572</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G25" t="n">
         <v>53.40121652862856</v>
@@ -6171,28 +6171,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R25" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S25" t="n">
-        <v>2648.6430051368</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T25" t="n">
-        <v>2402.763558715255</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U25" t="n">
-        <v>2124.330557968361</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V25" t="n">
-        <v>1837.375049838791</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W25" t="n">
-        <v>1565.348645425083</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X25" t="n">
-        <v>1319.956890758495</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y25" t="n">
-        <v>1092.537220072603</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>899.0604388335504</v>
+        <v>1789.512437976118</v>
       </c>
       <c r="C26" t="n">
-        <v>899.0604388335504</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="D26" t="n">
-        <v>899.0604388335504</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E26" t="n">
-        <v>899.0604388335504</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F26" t="n">
-        <v>743.9292024621484</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G26" t="n">
-        <v>342.5313710854123</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H26" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I26" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J26" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K26" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L26" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M26" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N26" t="n">
-        <v>632.7278666362199</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O26" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P26" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q26" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R26" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S26" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T26" t="n">
-        <v>2366.341725488304</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U26" t="n">
-        <v>2107.119422805321</v>
+        <v>2215.812008461025</v>
       </c>
       <c r="V26" t="n">
-        <v>1744.502472739147</v>
+        <v>2215.812008461025</v>
       </c>
       <c r="W26" t="n">
-        <v>1744.502472739147</v>
+        <v>2215.812008461025</v>
       </c>
       <c r="X26" t="n">
-        <v>1325.360009318458</v>
+        <v>2215.812008461025</v>
       </c>
       <c r="Y26" t="n">
-        <v>1325.360009318458</v>
+        <v>2215.812008461025</v>
       </c>
     </row>
     <row r="27">
@@ -6299,7 +6299,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H27" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I27" t="n">
         <v>79.46488968908616</v>
@@ -6360,43 +6360,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>990.3147246321325</v>
+        <v>1028.432740781182</v>
       </c>
       <c r="C28" t="n">
-        <v>817.7530131153575</v>
+        <v>855.8710292644067</v>
       </c>
       <c r="D28" t="n">
-        <v>651.8750203168802</v>
+        <v>689.9930364659294</v>
       </c>
       <c r="E28" t="n">
-        <v>482.1170165676174</v>
+        <v>520.2350327166666</v>
       </c>
       <c r="F28" t="n">
-        <v>305.4099625293736</v>
+        <v>343.5279786784229</v>
       </c>
       <c r="G28" t="n">
-        <v>139.8186875552013</v>
+        <v>177.9367037042505</v>
       </c>
       <c r="H28" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I28" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J28" t="n">
-        <v>139.9809016933184</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K28" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L28" t="n">
-        <v>832.9492380324151</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M28" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N28" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O28" t="n">
         <v>2154.361157596754</v>
@@ -6408,28 +6408,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R28" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S28" t="n">
-        <v>2510.819457729425</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T28" t="n">
-        <v>2264.94001130788</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U28" t="n">
-        <v>1986.507010560985</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V28" t="n">
-        <v>1699.551502431416</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="W28" t="n">
-        <v>1427.525098017707</v>
+        <v>1693.062784852648</v>
       </c>
       <c r="X28" t="n">
-        <v>1182.13334335112</v>
+        <v>1447.671030186061</v>
       </c>
       <c r="Y28" t="n">
-        <v>1182.13334335112</v>
+        <v>1220.251359500169</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1789.512437976118</v>
+        <v>1609.939104869517</v>
       </c>
       <c r="C29" t="n">
-        <v>1351.369965159541</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="D29" t="n">
-        <v>915.4601803339856</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="E29" t="n">
-        <v>481.6854354922808</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="F29" t="n">
-        <v>53.81800590148856</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G29" t="n">
-        <v>53.81800590148856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H29" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I29" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J29" t="n">
         <v>488.6559039815464</v>
@@ -6469,22 +6469,22 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L29" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M29" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N29" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O29" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P29" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q29" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R29" t="n">
         <v>2670.060826431428</v>
@@ -6493,22 +6493,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T29" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U29" t="n">
-        <v>2670.060826431428</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V29" t="n">
-        <v>2624.098132161372</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W29" t="n">
-        <v>2624.098132161372</v>
+        <v>1609.939104869517</v>
       </c>
       <c r="X29" t="n">
-        <v>2624.098132161372</v>
+        <v>1609.939104869517</v>
       </c>
       <c r="Y29" t="n">
-        <v>2215.812008461025</v>
+        <v>1609.939104869517</v>
       </c>
     </row>
     <row r="30">
@@ -6536,7 +6536,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H30" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I30" t="n">
         <v>79.46488968908616</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>903.8972536055599</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C31" t="n">
-        <v>731.3355420887848</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D31" t="n">
-        <v>565.4575492903075</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E31" t="n">
-        <v>395.6995455410447</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F31" t="n">
-        <v>218.9924915028009</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G31" t="n">
-        <v>53.40121652862857</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="H31" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I31" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J31" t="n">
         <v>139.9809016933184</v>
@@ -6627,7 +6627,7 @@
         <v>414.739356264454</v>
       </c>
       <c r="L31" t="n">
-        <v>832.9492380324152</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M31" t="n">
         <v>1292.433105213328</v>
@@ -6645,28 +6645,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R31" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S31" t="n">
-        <v>2651.821657388744</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T31" t="n">
-        <v>2405.942210967199</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U31" t="n">
-        <v>2127.509210220304</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V31" t="n">
-        <v>1840.553702090735</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W31" t="n">
-        <v>1568.527297677026</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X31" t="n">
-        <v>1323.135543010439</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y31" t="n">
-        <v>1095.715872324547</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1351.369965159541</v>
+        <v>1182.488464651585</v>
       </c>
       <c r="C32" t="n">
-        <v>1351.369965159541</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="D32" t="n">
-        <v>915.4601803339856</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="E32" t="n">
-        <v>481.6854354922808</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="F32" t="n">
-        <v>53.81800590148856</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G32" t="n">
-        <v>53.81800590148856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H32" t="n">
-        <v>53.81800590148856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I32" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J32" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K32" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L32" t="n">
-        <v>1293.567921177998</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M32" t="n">
-        <v>1293.567921177998</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N32" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O32" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P32" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q32" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R32" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S32" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T32" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U32" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V32" t="n">
-        <v>2670.060826431428</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W32" t="n">
-        <v>2605.098122765485</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X32" t="n">
-        <v>2185.955659344796</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="Y32" t="n">
-        <v>1777.669535644449</v>
+        <v>1182.488464651585</v>
       </c>
     </row>
     <row r="33">
@@ -6773,7 +6773,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H33" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I33" t="n">
         <v>79.46488968908616</v>
@@ -6834,43 +6834,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>903.8972536055599</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C34" t="n">
-        <v>731.3355420887848</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="D34" t="n">
-        <v>565.4575492903075</v>
+        <v>403.0375283363599</v>
       </c>
       <c r="E34" t="n">
-        <v>395.6995455410447</v>
+        <v>233.2795245870971</v>
       </c>
       <c r="F34" t="n">
-        <v>218.9924915028009</v>
+        <v>56.57247054885332</v>
       </c>
       <c r="G34" t="n">
-        <v>53.40121652862857</v>
+        <v>56.57247054885332</v>
       </c>
       <c r="H34" t="n">
-        <v>53.40121652862857</v>
+        <v>56.57247054885332</v>
       </c>
       <c r="I34" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J34" t="n">
-        <v>139.9809016933188</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K34" t="n">
-        <v>414.7393562644543</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L34" t="n">
-        <v>832.9492380324155</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M34" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N34" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O34" t="n">
         <v>2154.361157596754</v>
@@ -6882,28 +6882,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R34" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S34" t="n">
-        <v>2651.821657388744</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T34" t="n">
-        <v>2405.942210967199</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U34" t="n">
-        <v>2127.509210220304</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V34" t="n">
-        <v>1840.553702090735</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W34" t="n">
-        <v>1568.527297677026</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X34" t="n">
-        <v>1323.135543010439</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y34" t="n">
-        <v>1095.715872324547</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2078.642592532902</v>
+        <v>512.2184310291439</v>
       </c>
       <c r="C35" t="n">
-        <v>1640.500119716325</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="D35" t="n">
-        <v>1204.590334890769</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="E35" t="n">
-        <v>770.8155900490646</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="F35" t="n">
-        <v>342.9481604582723</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G35" t="n">
-        <v>342.9481604582723</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H35" t="n">
-        <v>53.81800590148856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I35" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J35" t="n">
         <v>488.6559039815464</v>
@@ -6949,40 +6949,40 @@
         <v>488.6559039815464</v>
       </c>
       <c r="N35" t="n">
-        <v>632.7278666362199</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O35" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P35" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q35" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R35" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S35" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T35" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U35" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V35" t="n">
-        <v>2670.060826431428</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W35" t="n">
-        <v>2670.060826431428</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X35" t="n">
-        <v>2504.942163017809</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y35" t="n">
-        <v>2504.942163017809</v>
+        <v>512.2184310291439</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C36" t="n">
-        <v>1406.536348780555</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D36" t="n">
-        <v>1311.446059927108</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E36" t="n">
-        <v>1217.325645254062</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F36" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G36" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H36" t="n">
-        <v>1006.82106495262</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I36" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J36" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K36" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L36" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M36" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N36" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O36" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P36" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q36" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R36" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S36" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T36" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U36" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V36" t="n">
-        <v>2100.972680272381</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W36" t="n">
-        <v>1915.649926005575</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X36" t="n">
-        <v>1760.782490244455</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y36" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="37">
@@ -7071,43 +7071,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>922.1364226482442</v>
+        <v>933.2958513705994</v>
       </c>
       <c r="C37" t="n">
-        <v>749.5747111314691</v>
+        <v>760.7341398538243</v>
       </c>
       <c r="D37" t="n">
-        <v>583.6967183329918</v>
+        <v>594.856147055347</v>
       </c>
       <c r="E37" t="n">
-        <v>413.9387145837291</v>
+        <v>425.0981433060843</v>
       </c>
       <c r="F37" t="n">
-        <v>237.2316605454853</v>
+        <v>248.3910892678405</v>
       </c>
       <c r="G37" t="n">
-        <v>71.64038557131298</v>
+        <v>82.79981429366816</v>
       </c>
       <c r="H37" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I37" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J37" t="n">
-        <v>139.9809016933184</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K37" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L37" t="n">
-        <v>832.9492380324151</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M37" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N37" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O37" t="n">
         <v>2154.361157596754</v>
@@ -7119,28 +7119,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R37" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S37" t="n">
-        <v>2670.060826431428</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T37" t="n">
-        <v>2424.181380009883</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U37" t="n">
-        <v>2145.748379262989</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V37" t="n">
-        <v>1858.792871133419</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W37" t="n">
-        <v>1586.766466719711</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X37" t="n">
-        <v>1341.374712053123</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y37" t="n">
-        <v>1113.955041367231</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1754.583695154438</v>
+        <v>931.3608944498332</v>
       </c>
       <c r="C38" t="n">
-        <v>1316.441222337862</v>
+        <v>493.2184216332565</v>
       </c>
       <c r="D38" t="n">
-        <v>1316.441222337862</v>
+        <v>57.30863680770096</v>
       </c>
       <c r="E38" t="n">
-        <v>882.6664774961569</v>
+        <v>57.30863680770096</v>
       </c>
       <c r="F38" t="n">
-        <v>454.7990479053647</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G38" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H38" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I38" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J38" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K38" t="n">
-        <v>53.40121652862857</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L38" t="n">
-        <v>53.40121652862857</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M38" t="n">
-        <v>53.40121652862857</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N38" t="n">
-        <v>632.7278666362199</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O38" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P38" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q38" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R38" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S38" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T38" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U38" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V38" t="n">
-        <v>2670.060826431428</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W38" t="n">
-        <v>2600.025729060035</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X38" t="n">
-        <v>2180.883265639346</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="Y38" t="n">
-        <v>2180.883265639346</v>
+        <v>931.3608944498332</v>
       </c>
     </row>
     <row r="39">
@@ -7247,25 +7247,25 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H39" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I39" t="n">
-        <v>73.33088177303142</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J39" t="n">
-        <v>397.8892067392438</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K39" t="n">
-        <v>397.8892067392438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L39" t="n">
-        <v>397.8892067392438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M39" t="n">
-        <v>397.8892067392438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N39" t="n">
-        <v>397.8892067392438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O39" t="n">
         <v>1058.729261281022</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>922.1364226482442</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C40" t="n">
-        <v>749.5747111314691</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D40" t="n">
-        <v>583.6967183329918</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E40" t="n">
-        <v>413.9387145837291</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F40" t="n">
-        <v>237.2316605454853</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G40" t="n">
-        <v>71.64038557131298</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H40" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I40" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J40" t="n">
-        <v>139.9809016933188</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K40" t="n">
-        <v>414.7393562644543</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L40" t="n">
-        <v>832.9492380324155</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M40" t="n">
         <v>1292.433105213328</v>
@@ -7359,25 +7359,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S40" t="n">
-        <v>2670.060826431428</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T40" t="n">
-        <v>2424.181380009883</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U40" t="n">
-        <v>2145.748379262989</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V40" t="n">
-        <v>1858.792871133419</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W40" t="n">
-        <v>1586.766466719711</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X40" t="n">
-        <v>1341.374712053123</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y40" t="n">
-        <v>1113.955041367231</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1213.635879497017</v>
+        <v>1361.228219012466</v>
       </c>
       <c r="C41" t="n">
-        <v>1213.635879497017</v>
+        <v>923.0857461958889</v>
       </c>
       <c r="D41" t="n">
-        <v>888.5737927470695</v>
+        <v>487.1759613703334</v>
       </c>
       <c r="E41" t="n">
-        <v>454.7990479053647</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="F41" t="n">
-        <v>454.7990479053647</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G41" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H41" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I41" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J41" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K41" t="n">
-        <v>1149.495958523325</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L41" t="n">
-        <v>1149.495958523325</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M41" t="n">
-        <v>1149.495958523325</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N41" t="n">
-        <v>1149.495958523325</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O41" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P41" t="n">
-        <v>1954.407975719777</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="Q41" t="n">
-        <v>2500.906761678372</v>
+        <v>2582.420166112558</v>
       </c>
       <c r="R41" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S41" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T41" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U41" t="n">
-        <v>2410.838523748445</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V41" t="n">
-        <v>2048.221573682272</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W41" t="n">
-        <v>2048.221573682272</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="X41" t="n">
-        <v>2048.221573682272</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="Y41" t="n">
-        <v>1639.935449981925</v>
+        <v>1361.228219012466</v>
       </c>
     </row>
     <row r="42">
@@ -7484,7 +7484,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H42" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I42" t="n">
         <v>79.46488968908616</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1132.45937714051</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C43" t="n">
-        <v>959.897665623735</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D43" t="n">
-        <v>794.0196728252577</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E43" t="n">
-        <v>624.2616690759949</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F43" t="n">
-        <v>447.554615037751</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G43" t="n">
-        <v>281.9633400635787</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="H43" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I43" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J43" t="n">
         <v>139.9809016933184</v>
@@ -7602,19 +7602,19 @@
         <v>2243.522190013252</v>
       </c>
       <c r="U43" t="n">
-        <v>2243.522190013252</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V43" t="n">
-        <v>2069.115825625685</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W43" t="n">
-        <v>1797.089421211977</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X43" t="n">
-        <v>1551.697666545389</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y43" t="n">
-        <v>1324.277995859497</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>893.3583100948014</v>
+        <v>1918.900526231935</v>
       </c>
       <c r="C44" t="n">
-        <v>455.2158372782247</v>
+        <v>1480.758053415358</v>
       </c>
       <c r="D44" t="n">
-        <v>455.2158372782247</v>
+        <v>1044.848268589803</v>
       </c>
       <c r="E44" t="n">
-        <v>455.2158372782247</v>
+        <v>611.0735237480976</v>
       </c>
       <c r="F44" t="n">
-        <v>455.2158372782247</v>
+        <v>183.2060941573054</v>
       </c>
       <c r="G44" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H44" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I44" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J44" t="n">
         <v>488.6559039815464</v>
@@ -7654,46 +7654,46 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L44" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M44" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N44" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O44" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P44" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q44" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R44" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S44" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T44" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U44" t="n">
-        <v>2410.838523748445</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V44" t="n">
-        <v>2048.221573682272</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="W44" t="n">
-        <v>1643.366119093305</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="X44" t="n">
-        <v>1301.644433795148</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="Y44" t="n">
-        <v>893.3583100948014</v>
+        <v>1918.900526231935</v>
       </c>
     </row>
     <row r="45">
@@ -7721,7 +7721,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H45" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I45" t="n">
         <v>79.46488968908616</v>
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>922.1364226482442</v>
+        <v>966.8681021663376</v>
       </c>
       <c r="C46" t="n">
-        <v>749.5747111314691</v>
+        <v>794.3063906495626</v>
       </c>
       <c r="D46" t="n">
-        <v>583.6967183329918</v>
+        <v>628.4283978510853</v>
       </c>
       <c r="E46" t="n">
-        <v>413.9387145837291</v>
+        <v>458.6703941018225</v>
       </c>
       <c r="F46" t="n">
-        <v>237.2316605454853</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G46" t="n">
-        <v>71.64038557131298</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H46" t="n">
-        <v>53.40121652862857</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I46" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J46" t="n">
-        <v>139.9809016933182</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K46" t="n">
-        <v>414.7393562644535</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L46" t="n">
-        <v>832.9492380324147</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M46" t="n">
         <v>1292.433105213328</v>
@@ -7830,28 +7830,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R46" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S46" t="n">
-        <v>2670.060826431428</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T46" t="n">
-        <v>2424.181380009883</v>
+        <v>2277.094440808989</v>
       </c>
       <c r="U46" t="n">
-        <v>2145.748379262989</v>
+        <v>1998.661440062095</v>
       </c>
       <c r="V46" t="n">
-        <v>1858.792871133419</v>
+        <v>1711.705931932525</v>
       </c>
       <c r="W46" t="n">
-        <v>1586.766466719711</v>
+        <v>1439.679527518817</v>
       </c>
       <c r="X46" t="n">
-        <v>1341.374712053123</v>
+        <v>1194.287772852229</v>
       </c>
       <c r="Y46" t="n">
-        <v>1113.955041367231</v>
+        <v>966.8681021663376</v>
       </c>
     </row>
   </sheetData>
@@ -7981,19 +7981,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -8060,22 +8060,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>358.9284720888814</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8218,7 +8218,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8230,10 +8230,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q5" t="n">
         <v>424.2958575201044</v>
@@ -8300,19 +8300,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -8376,19 +8376,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>225.3346227128309</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -8455,19 +8455,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>424.2958575201044</v>
@@ -8537,7 +8537,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
       <c r="R9" t="n">
-        <v>52.98895607821123</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8613,22 +8613,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P10" t="n">
-        <v>151.6683048404234</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8689,22 +8689,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P11" t="n">
         <v>424.2958575201044</v>
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L12" t="n">
-        <v>288.7962490401609</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8783,10 +8783,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>424.2958575201044</v>
@@ -8850,25 +8850,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>321.9475215913873</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N13" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8929,25 +8929,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K14" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q14" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9008,10 +9008,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,10 +9020,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>424.2958575201044</v>
@@ -9093,13 +9093,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>371.7091627680287</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>351.0170646165068</v>
@@ -9166,28 +9166,28 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K17" t="n">
-        <v>407.152590549595</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L18" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>385.2554146752025</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9327,19 +9327,19 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>424.2958575201043</v>
+        <v>312.7888501519116</v>
       </c>
       <c r="N19" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6484237362511</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821538</v>
@@ -9403,19 +9403,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>424.2958575201044</v>
@@ -9482,10 +9482,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L21" t="n">
-        <v>358.9284720888815</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>424.2958575201044</v>
@@ -9561,19 +9561,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>223.0854642319581</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P22" t="n">
         <v>351.0170646165068</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L23" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>667.5152066078568</v>
-      </c>
-      <c r="P23" t="n">
-        <v>667.5152066078567</v>
-      </c>
       <c r="Q23" t="n">
-        <v>469.682203560008</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -9719,10 +9719,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>540.0049805212334</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L24" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9877,7 +9877,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9886,13 +9886,13 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>667.5152066078571</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P26" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157522</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -10041,7 +10041,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645589</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -10117,7 +10117,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L29" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10126,10 +10126,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P29" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
@@ -10351,22 +10351,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O32" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L32" t="n">
-        <v>145.5272350047208</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
       <c r="P32" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908102</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -10597,13 +10597,13 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>145.5272350047206</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O35" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P35" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
@@ -10667,7 +10667,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -10752,7 +10752,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645589</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
@@ -10822,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10834,13 +10834,13 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>585.1784344521125</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P38" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>20.13097499434632</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10916,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908102</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,16 +11074,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>667.5152066078572</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11302,7 +11302,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L44" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,10 +11311,10 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P44" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -22546,25 +22546,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
-        <v>294.2443573616788</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -22612,7 +22612,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>18.87936968596773</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22704,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22713,19 +22713,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,25 +22752,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>37.93967370487039</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>138.4021565278148</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22783,19 +22783,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>374.8864093103448</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>59.33415455948301</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -22804,7 +22804,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22843,13 +22843,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -22941,10 +22941,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>186.156384173066</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -22962,7 +22962,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,13 +22989,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -23004,13 +23004,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>105.6032825234963</v>
       </c>
     </row>
     <row r="8">
@@ -23023,13 +23023,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>55.42272534349127</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -23038,7 +23038,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>238.381585316282</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23080,13 +23080,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>186.156384173066</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -23196,10 +23196,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23238,16 +23238,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>143.8772399241461</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>28.34456025427443</v>
+        <v>320.2373888327573</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -23269,16 +23269,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>70.10167305096083</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>197.2151525323068</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>24.02050955915126</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -23515,7 +23515,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>98.60714775391625</v>
       </c>
     </row>
     <row r="15">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>101.0685279790871</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>178.9441457999764</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>240.1747794917277</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>361.7816153876813</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -23752,7 +23752,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,19 +23788,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>50.38954730677857</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>81.99110749770156</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E20" t="n">
-        <v>43.40600239069244</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -24034,7 +24034,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>341.618676670379</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>137.0421411536991</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>231.694888912911</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
         <v>0.4126214791313976</v>
@@ -24262,10 +24262,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>107.1930383200168</v>
       </c>
       <c r="V23" t="n">
-        <v>330.3860971166862</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>3.146865729424235</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24445,25 +24445,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>270.0088312871964</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>24.79030472114673</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>52.94985625022224</v>
+        <v>15.21302026266349</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,22 +24733,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>313.4877132381562</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>184.7738107741426</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24852,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>135.3636110865063</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>336.4938234137929</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>248.6162944997343</v>
       </c>
     </row>
     <row r="33">
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>84.6338082530489</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>377.3284802750009</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>251.4835620069998</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>120.4463752142717</v>
+        <v>109.39854077914</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.1330306977341</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>331.472153645398</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>120.4463752142717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25599,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>109.7392210948515</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>24.76175127392906</v>
       </c>
     </row>
     <row r="42">
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>135.3636110865063</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>111.4236523045825</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25870,22 +25870,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>268.8770242105787</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
@@ -25924,13 +25924,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>76.64657034130687</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>33.23652828778057</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>354840.9552426118</v>
+        <v>354840.9552426119</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>354840.9552426118</v>
+        <v>354840.9552426119</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>354840.9552426118</v>
+        <v>354840.9552426119</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>354840.9552426118</v>
+        <v>354840.9552426119</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>499175.394566284</v>
+        <v>499175.3945662841</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>499175.3945662843</v>
+        <v>499175.3945662841</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>499175.3945662843</v>
+        <v>499175.3945662841</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>499175.3945662843</v>
+        <v>499175.394566284</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>78131.51941534776</v>
+        <v>78131.51941534779</v>
       </c>
       <c r="C2" t="n">
-        <v>78131.51941534778</v>
+        <v>78131.51941534781</v>
       </c>
       <c r="D2" t="n">
-        <v>78131.51941534781</v>
+        <v>78131.51941534779</v>
       </c>
       <c r="E2" t="n">
         <v>78131.51941534779</v>
       </c>
       <c r="F2" t="n">
-        <v>78131.51941534779</v>
+        <v>78131.51941534778</v>
       </c>
       <c r="G2" t="n">
         <v>78131.51941534779</v>
       </c>
       <c r="H2" t="n">
-        <v>78131.51941534779</v>
+        <v>78131.51941534778</v>
       </c>
       <c r="I2" t="n">
         <v>109912.1492488192</v>
@@ -26441,7 +26441,7 @@
         <v>17770.48083418235</v>
       </c>
       <c r="J4" t="n">
-        <v>17770.48083418235</v>
+        <v>17770.48083418234</v>
       </c>
       <c r="K4" t="n">
         <v>17770.48083418235</v>
@@ -26450,16 +26450,16 @@
         <v>17770.48083418235</v>
       </c>
       <c r="M4" t="n">
-        <v>17770.48083418235</v>
+        <v>17770.48083418234</v>
       </c>
       <c r="N4" t="n">
         <v>17770.48083418235</v>
       </c>
       <c r="O4" t="n">
-        <v>17770.48083418235</v>
+        <v>17770.48083418234</v>
       </c>
       <c r="P4" t="n">
-        <v>17770.48083418235</v>
+        <v>17770.48083418234</v>
       </c>
     </row>
     <row r="5">
@@ -26493,25 +26493,25 @@
         <v>40584.9245617577</v>
       </c>
       <c r="J5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="K5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="L5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="M5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="N5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="O5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="P5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-136116.7913680079</v>
+        <v>-136856.1479799236</v>
       </c>
       <c r="C6" t="n">
-        <v>6074.509291702037</v>
+        <v>5335.152679786414</v>
       </c>
       <c r="D6" t="n">
-        <v>6074.509291702067</v>
+        <v>5335.152679786398</v>
       </c>
       <c r="E6" t="n">
-        <v>39702.10929170205</v>
+        <v>38962.7526797864</v>
       </c>
       <c r="F6" t="n">
-        <v>39702.10929170205</v>
+        <v>38962.75267978638</v>
       </c>
       <c r="G6" t="n">
-        <v>39702.10929170205</v>
+        <v>38962.7526797864</v>
       </c>
       <c r="H6" t="n">
-        <v>39702.10929170205</v>
+        <v>38962.75267978638</v>
       </c>
       <c r="I6" t="n">
-        <v>-13120.38867588515</v>
+        <v>-13615.27890446638</v>
       </c>
       <c r="J6" t="n">
-        <v>-59457.72149211106</v>
+        <v>-59952.61172069232</v>
       </c>
       <c r="K6" t="n">
-        <v>51556.74385287915</v>
+        <v>51061.8536242979</v>
       </c>
       <c r="L6" t="n">
-        <v>51556.74385287914</v>
+        <v>51061.85362429786</v>
       </c>
       <c r="M6" t="n">
-        <v>51556.74385287912</v>
+        <v>51061.85362429787</v>
       </c>
       <c r="N6" t="n">
-        <v>51556.74385287914</v>
+        <v>51061.85362429786</v>
       </c>
       <c r="O6" t="n">
-        <v>51556.74385287917</v>
+        <v>51061.85362429787</v>
       </c>
       <c r="P6" t="n">
-        <v>51556.74385287915</v>
+        <v>51061.8536242979</v>
       </c>
     </row>
   </sheetData>
@@ -26813,25 +26813,25 @@
         <v>667.515206607857</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
     </row>
   </sheetData>
@@ -27035,7 +27035,7 @@
         <v>243.2193490877526</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34701,19 +34701,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -34780,22 +34780,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>358.9284720888814</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34938,7 +34938,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q5" t="n">
         <v>424.2958575201044</v>
@@ -35020,19 +35020,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -35096,19 +35096,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>225.3346227128309</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -35175,19 +35175,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>424.2958575201044</v>
@@ -35257,7 +35257,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35269,13 +35269,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
       <c r="R9" t="n">
-        <v>52.98895607821123</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P10" t="n">
-        <v>151.6683048404234</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35409,22 +35409,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P11" t="n">
         <v>424.2958575201044</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L12" t="n">
-        <v>288.7962490401609</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35503,10 +35503,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>424.2958575201044</v>
@@ -35570,25 +35570,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>321.9475215913873</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N13" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,25 +35649,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K14" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q14" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697544</v>
@@ -35728,10 +35728,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35740,10 +35740,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>424.2958575201044</v>
@@ -35813,13 +35813,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>371.7091627680287</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>351.0170646165068</v>
@@ -35886,28 +35886,28 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K17" t="n">
-        <v>407.152590549595</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L18" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35983,7 +35983,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>385.2554146752025</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36047,19 +36047,19 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>424.2958575201043</v>
+        <v>312.7888501519116</v>
       </c>
       <c r="N19" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6484237362511</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821539</v>
@@ -36123,19 +36123,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>424.2958575201044</v>
@@ -36202,10 +36202,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L21" t="n">
-        <v>358.9284720888815</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36217,7 +36217,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>424.2958575201044</v>
@@ -36281,19 +36281,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>223.0854642319581</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P22" t="n">
         <v>351.0170646165068</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L23" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>667.5152066078568</v>
-      </c>
-      <c r="P23" t="n">
-        <v>667.5152066078567</v>
-      </c>
       <c r="Q23" t="n">
-        <v>469.682203560008</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697544</v>
@@ -36439,10 +36439,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>540.0049805212334</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L24" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36597,7 +36597,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -36606,13 +36606,13 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>667.5152066078571</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P26" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157523</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36761,7 +36761,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645589</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -36837,7 +36837,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L29" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -36846,10 +36846,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P29" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157523</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
@@ -36995,10 +36995,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -37071,22 +37071,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O32" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L32" t="n">
-        <v>145.5272350047208</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
       <c r="P32" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157523</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908102</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -37317,13 +37317,13 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>145.5272350047206</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O35" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P35" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094345</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37472,7 +37472,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645589</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
@@ -37542,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -37554,13 +37554,13 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>585.1784344521125</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P38" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>20.13097499434632</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37636,7 +37636,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908102</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37709,13 +37709,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -37794,16 +37794,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>667.5152066078572</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -38022,7 +38022,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L44" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38031,10 +38031,10 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P44" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908046</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
